--- a/ACTIVOS EROSA.xlsx
+++ b/ACTIVOS EROSA.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{705FDA77-B305-48E8-A44F-12C54C773B77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39ECB048-39D2-4533-A9EC-292E9C74F576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20147" yWindow="2129" windowWidth="20260" windowHeight="10768" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4605" yWindow="-13620" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="Hoja1" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Q$117</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Q$118</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -5027,7 +5027,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
@@ -5364,7 +5364,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="8" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -5426,10 +5426,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -5742,48 +5742,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G118" sqref="G118"/>
+      <selection pane="bottomLeft" activeCell="B121" sqref="B121"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="3" width="29.33203125" customWidth="1"/>
-    <col min="4" max="4" width="30.21875" style="53" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.77734375" style="53" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.88671875" style="53" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.33203125" style="53" customWidth="1"/>
+    <col min="2" max="3" width="29.36328125" customWidth="1"/>
+    <col min="4" max="4" width="30.1796875" style="53" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.81640625" style="53" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.90625" style="53" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.36328125" style="53" customWidth="1"/>
     <col min="11" max="11" width="16" style="53" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30.6640625" style="53" customWidth="1"/>
-    <col min="13" max="13" width="45.109375" style="53" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.6328125" style="53" customWidth="1"/>
+    <col min="13" max="13" width="45.08984375" style="53" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="28" style="53" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="19" style="53" customWidth="1"/>
-    <col min="16" max="16" width="91.5546875" style="53" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="91.54296875" style="53" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="19" style="53" customWidth="1"/>
-    <col min="19" max="19" width="3.88671875" customWidth="1"/>
-    <col min="20" max="20" width="12.109375" customWidth="1"/>
-    <col min="21" max="21" width="3.77734375" customWidth="1"/>
-    <col min="22" max="22" width="34.77734375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="5.44140625" customWidth="1"/>
-    <col min="24" max="24" width="4.5546875" customWidth="1"/>
-    <col min="25" max="25" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="34.6640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="39.44140625" customWidth="1"/>
-    <col min="28" max="28" width="29.5546875" customWidth="1"/>
-    <col min="30" max="30" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="25.21875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="43.77734375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="36.109375" customWidth="1"/>
-    <col min="35" max="36" width="8.109375" customWidth="1"/>
-    <col min="37" max="37" width="76.44140625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.90625" customWidth="1"/>
+    <col min="20" max="20" width="12.08984375" customWidth="1"/>
+    <col min="21" max="21" width="3.81640625" customWidth="1"/>
+    <col min="22" max="22" width="34.81640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="5.453125" customWidth="1"/>
+    <col min="24" max="24" width="4.54296875" customWidth="1"/>
+    <col min="25" max="25" width="24.90625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="34.6328125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="39.453125" customWidth="1"/>
+    <col min="28" max="28" width="29.54296875" customWidth="1"/>
+    <col min="30" max="30" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="43.81640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="36.08984375" customWidth="1"/>
+    <col min="35" max="36" width="8.08984375" customWidth="1"/>
+    <col min="37" max="37" width="76.453125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="21.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:37" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -5859,7 +5859,7 @@
         <v>1605</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>5270</v>
       </c>
@@ -5985,7 +5985,7 @@
         <v>("apt.mexicali@tierosa","apt.mexicali@empacadorarosarito.com.mx",3,1),</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>4389</v>
       </c>
@@ -6108,7 +6108,7 @@
         <v>("almacenplantasecos@tierosa","almacenplantasecos@empacadorarosarito.com.mx",3,2),</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>5612</v>
       </c>
@@ -6231,7 +6231,7 @@
         <v>("apt.her@tierosa","apt.her@empacadorarosarito.com.mx",3,3),</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>1214</v>
       </c>
@@ -6354,7 +6354,7 @@
         <v>("apt.tij@tierosa","apt.tij@empacadorarosarito.com.mx",3,4),</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>5601</v>
       </c>
@@ -6477,7 +6477,7 @@
         <v>("apt.ensenada@tierosa","apt.ensenada@empacadorarosarito.com.mx",3,5),</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>1864</v>
       </c>
@@ -6594,7 +6594,7 @@
         <v>("apt.obregon@tierosa","apt.obregon@empacadorarosarito.com.mx",3,6),</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>5407</v>
       </c>
@@ -6711,7 +6711,7 @@
         <v>("adm.tijuana@tierosa","adm.tijuana@empacadorarosarito.com.mx",3,7),</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>89</v>
       </c>
@@ -6828,7 +6828,7 @@
         <v>("a.flores@tierosa","a.flores@empacadorarosarito.com.mx",3,8),</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>4049</v>
       </c>
@@ -6938,7 +6938,7 @@
         <v>("e.gomez@tierosa","e.gomez@empacadorarosarito.com.mx",2,9),</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>2793</v>
       </c>
@@ -7048,7 +7048,7 @@
         <v>("e.zamora@tierosa","e.zamora@empacadorarosarito.com.mx",2,9),</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>1730</v>
       </c>
@@ -7159,7 +7159,7 @@
         <v>("j.garcia@tierosa","j.garcia@empacadorarosarito.com.mx",5,11),</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>3657</v>
       </c>
@@ -7270,7 +7270,7 @@
         <v>("h.garcia@tierosa","h.garcia@empacadorarosarito.com.mx",5,11),</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>5120</v>
       </c>
@@ -7381,7 +7381,7 @@
         <v>("cxc.tijuana@tierosa","cxc.tijuana@empacadorarosarito.com.mx",3,7),</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>5504</v>
       </c>
@@ -7492,7 +7492,7 @@
         <v>("cxc.ensenada@tierosa","cxc.ensenada@empacadorarosarito.com.mx",3,5),</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>4263</v>
       </c>
@@ -7603,7 +7603,7 @@
         <v>("c3.hermosillo@tierosa","c3.hermosillo@empacadorarosarito.com.mx",3,3),</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>141</v>
       </c>
@@ -7709,7 +7709,7 @@
         <v>("cxc.mexicali@tierosa","cxc.mexicali@empacadorarosarito.com.mx",3,1),</v>
       </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>5641</v>
       </c>
@@ -7820,7 +7820,7 @@
         <v>("s.mejia@tierosa","s.mejia@empacadorarosarito.com.mx",3,2),</v>
       </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>5080</v>
       </c>
@@ -7931,7 +7931,7 @@
         <v>("j.villegas@tierosa","j.villegas@empacadorarosarito.com.mx",3,12),</v>
       </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>5646</v>
       </c>
@@ -8029,7 +8029,7 @@
         <v>("a.contable@tierosa","a.contable@empacadorarosarito.com.mx",3,12),</v>
       </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>4559</v>
       </c>
@@ -8127,7 +8127,7 @@
         <v>("a.costos@tierosa","a.costos@empacadorarosarito.com.mx",3,12),</v>
       </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>667</v>
       </c>
@@ -8225,7 +8225,7 @@
         <v>("l.fonseca@tierosa","l.fonseca@empacadorarosarito.com.mx",3,12),</v>
       </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>5530</v>
       </c>
@@ -8323,7 +8323,7 @@
         <v>("a.procedimientos@tierosa","a.procedimientos@empacadorarosarito.com.mx",3,13),</v>
       </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>3806</v>
       </c>
@@ -8421,7 +8421,7 @@
         <v>("auxss@tierosa","auxss@empacadorarosarito.com.mx",3,14),</v>
       </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>5152</v>
       </c>
@@ -8519,7 +8519,7 @@
         <v>("c2.hermosillo@tierosa","c2.hermosillo@empacadorarosarito.com.mx",3,3),</v>
       </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>4075</v>
       </c>
@@ -8617,7 +8617,7 @@
         <v>("c.ensenada@tierosa","c.ensenada@empacadorarosarito.com.mx",3,5),</v>
       </c>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>5411</v>
       </c>
@@ -8715,7 +8715,7 @@
         <v>("c.hermosillo@tierosa","c.hermosillo@empacadorarosarito.com.mx",3,3),</v>
       </c>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>48</v>
       </c>
@@ -8813,7 +8813,7 @@
         <v>("c.mexicali@tierosa","c.mexicali@empacadorarosarito.com.mx",3,1),</v>
       </c>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>5567</v>
       </c>
@@ -8911,7 +8911,7 @@
         <v>("c.obregon@tierosa","c.obregon@empacadorarosarito.com.mx",3,6),</v>
       </c>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>5373</v>
       </c>
@@ -9009,7 +9009,7 @@
         <v>("c2.tijuana@tierosa","c2.tijuana@empacadorarosarito.com.mx",3,4),</v>
       </c>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>3428</v>
       </c>
@@ -9107,7 +9107,7 @@
         <v>("c.tijuana@tierosa","c.tijuana@empacadorarosarito.com.mx",3,4),</v>
       </c>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>4578</v>
       </c>
@@ -9205,7 +9205,7 @@
         <v>("e.calidad@tierosa","e.calidad@empacadorarosarito.com.mx",3,5),</v>
       </c>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>457</v>
       </c>
@@ -9303,7 +9303,7 @@
         <v>("pv.ensenada@tierosa","pv.ensenada@empacadorarosarito.com.mx",3,5),</v>
       </c>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>5182</v>
       </c>
@@ -9401,7 +9401,7 @@
         <v>("pv.hermosillo@tierosa","pv.hermosillo@empacadorarosarito.com.mx",3,3),</v>
       </c>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>12</v>
       </c>
@@ -9499,7 +9499,7 @@
         <v>("pv.mexicali@tierosa","pv.mexicali@empacadorarosarito.com.mx",3,1),</v>
       </c>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>1479</v>
       </c>
@@ -9597,7 +9597,7 @@
         <v>("pv.obregon@tierosa","pv.obregon@empacadorarosarito.com.mx",3,6),</v>
       </c>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>16</v>
       </c>
@@ -9690,7 +9690,7 @@
         <v>("pv.tijuana@tierosa","pv.tijuana@empacadorarosarito.com.mx",3,4),</v>
       </c>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>5502</v>
       </c>
@@ -9788,7 +9788,7 @@
         <v>("pv.alamos@tierosa","pv.alamos@empacadorarosarito.com.mx",3,4),</v>
       </c>
     </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>5551</v>
       </c>
@@ -9886,7 +9886,7 @@
         <v>("cd.tijuana@tierosa","cd.tijuana@empacadorarosarito.com.mx",3,15),</v>
       </c>
     </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>5537</v>
       </c>
@@ -9984,7 +9984,7 @@
         <v>("ca2.produccion@tierosa","ca2.produccion@empacadorarosarito.com.mx",3,16),</v>
       </c>
     </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>5183</v>
       </c>
@@ -10082,7 +10082,7 @@
         <v>("ca1.produccion@tierosa","ca1.produccion@empacadorarosarito.com.mx",3,16),</v>
       </c>
     </row>
-    <row r="42" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>4744</v>
       </c>
@@ -10180,7 +10180,7 @@
         <v>("r.bernal@tierosa","r.bernal@empacadorarosarito.com.mx",3,12),</v>
       </c>
     </row>
-    <row r="43" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>3401</v>
       </c>
@@ -10278,7 +10278,7 @@
         <v>("c.saucedo@tierosa","c.saucedo@empacadorarosarito.com.mx",3,12),</v>
       </c>
     </row>
-    <row r="44" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>3958</v>
       </c>
@@ -10376,7 +10376,7 @@
         <v>("cxc.hermosillo@tierosa","cxc.hermosillo@empacadorarosarito.com.mx",3,3),</v>
       </c>
     </row>
-    <row r="45" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>1642</v>
       </c>
@@ -10474,7 +10474,7 @@
         <v>("l.ramirez@tierosa","l.ramirez@empacadorarosarito.com.mx",3,6),</v>
       </c>
     </row>
-    <row r="46" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>42</v>
       </c>
@@ -10567,7 +10567,7 @@
         <v>("y.marquez@tierosa","y.marquez@empacadorarosarito.com.mx",3,14),</v>
       </c>
     </row>
-    <row r="47" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>5133</v>
       </c>
@@ -10665,7 +10665,7 @@
         <v>("k.nunez@tierosa","k.nunez@empacadorarosarito.com.mx",3,14),</v>
       </c>
     </row>
-    <row r="48" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>135</v>
       </c>
@@ -10763,7 +10763,7 @@
         <v>("v.cruz@tierosa","v.cruz@empacadorarosarito.com.mx",3,17),</v>
       </c>
     </row>
-    <row r="49" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>4766</v>
       </c>
@@ -10861,7 +10861,7 @@
         <v>("k.rocha@tierosa","k.rocha@empacadorarosarito.com.mx",3,13),</v>
       </c>
     </row>
-    <row r="50" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>5660</v>
       </c>
@@ -10959,7 +10959,7 @@
         <v>("e.rangel@tierosa","e.rangel@empacadorarosarito.com.mx",3,18),</v>
       </c>
     </row>
-    <row r="51" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>3935</v>
       </c>
@@ -11057,7 +11057,7 @@
         <v>("r.mendoza@tierosa","r.mendoza@empacadorarosarito.com.mx",3,8),</v>
       </c>
     </row>
-    <row r="52" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>5346</v>
       </c>
@@ -11155,7 +11155,7 @@
         <v>("luisfa@tierosa","luisfa@empacadorarosarito.com",4,10),</v>
       </c>
     </row>
-    <row r="53" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>2515</v>
       </c>
@@ -11253,7 +11253,7 @@
         <v>("enfermeria@tierosa","enfermeria@empacadorarosarito.com.mx",3,14),</v>
       </c>
     </row>
-    <row r="54" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>5121</v>
       </c>
@@ -11351,7 +11351,7 @@
         <v>("aux.reclutamiento@tierosa","aux.reclutamiento@empacadorarosarito.com.mx",3,14),</v>
       </c>
     </row>
-    <row r="55" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>4904</v>
       </c>
@@ -11449,7 +11449,7 @@
         <v>("a.nomina@tierosa","a.nomina@empacadorarosarito.com.mx",3,14),</v>
       </c>
     </row>
-    <row r="56" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>3134</v>
       </c>
@@ -11534,7 +11534,7 @@
         <v>("reclutamiento@tierosa","reclutamiento@empacadorarosarito.com.mx",3,14),</v>
       </c>
     </row>
-    <row r="57" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>2784</v>
       </c>
@@ -11619,7 +11619,7 @@
         <v>("rh.ensenada@tierosa","rh.ensenada@empacadorarosarito.com.mx",3,5),</v>
       </c>
     </row>
-    <row r="58" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>2575</v>
       </c>
@@ -11704,7 +11704,7 @@
         <v>("rh.hermosillo@tierosa","rh.hermosillo@empacadorarosarito.com.mx",3,3),</v>
       </c>
     </row>
-    <row r="59" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>1951</v>
       </c>
@@ -11789,7 +11789,7 @@
         <v>("rh.mexicali@tierosa","rh.mexicali@empacadorarosarito.com.mx",3,1),</v>
       </c>
     </row>
-    <row r="60" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>1100</v>
       </c>
@@ -11874,7 +11874,7 @@
         <v>("f.chavez@tierosa","f.chavez@empacadorarosarito.com.mx",3,6),</v>
       </c>
     </row>
-    <row r="61" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>539</v>
       </c>
@@ -11959,7 +11959,7 @@
         <v>("a.lopez@tierosa","a.lopez@empacadorarosarito.com.mx",4,10),</v>
       </c>
     </row>
-    <row r="62" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>5426</v>
       </c>
@@ -12044,7 +12044,7 @@
         <v>("h.rodriguez@tierosa","h.rodriguez@empacadorarosarito.com.mx",4,10),</v>
       </c>
     </row>
-    <row r="63" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>3578</v>
       </c>
@@ -12129,7 +12129,7 @@
         <v>("m.escobedo@tierosa","m.escobedo@empacadorarosarito.com.mx",4,10),</v>
       </c>
     </row>
-    <row r="64" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>3572</v>
       </c>
@@ -12214,7 +12214,7 @@
         <v>("a.ochoa@tierosa","a.ochoa@empacadorarosarito.com.mx",4,10),</v>
       </c>
     </row>
-    <row r="65" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>5642</v>
       </c>
@@ -12299,7 +12299,7 @@
         <v>("r.villalvazo@tierosa","r.villalvazo@empacadorarosarito.com.mx",4,5),</v>
       </c>
     </row>
-    <row r="66" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>4975</v>
       </c>
@@ -12384,7 +12384,7 @@
         <v>("j.leyva@tierosa","j.leyva@empacadorarosarito.com.mx",4,3),</v>
       </c>
     </row>
-    <row r="67" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>2720</v>
       </c>
@@ -12469,7 +12469,7 @@
         <v>("r.lopez@tierosa","r.lopez@empacdorarosarito.com.mx",4,1),</v>
       </c>
     </row>
-    <row r="68" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>2953</v>
       </c>
@@ -12554,7 +12554,7 @@
         <v>("c.lopez@tierosa","c.lopez@empacadorarosarito.com.mx",4,6),</v>
       </c>
     </row>
-    <row r="69" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>4981</v>
       </c>
@@ -12639,7 +12639,7 @@
         <v>("a.delgado@tierosa","a.delgado@empacadorarosarito.com.mx",4,4),</v>
       </c>
     </row>
-    <row r="70" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>3927</v>
       </c>
@@ -12724,7 +12724,7 @@
         <v>("l.jimenez@tierosa","l.jimenez@empacadorarosarito.com.mx",3,3),</v>
       </c>
     </row>
-    <row r="71" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>5351</v>
       </c>
@@ -12809,7 +12809,7 @@
         <v>("calidadmexicali@tierosa","calidadmexicali@empacadorarosarito.com.mx",3,1),</v>
       </c>
     </row>
-    <row r="72" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>687</v>
       </c>
@@ -12894,7 +12894,7 @@
         <v>("l.rodriguez@tierosa","l.rodriguez@empacadorarosarito.com.mx",3,6),</v>
       </c>
     </row>
-    <row r="73" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>1945</v>
       </c>
@@ -12979,7 +12979,7 @@
         <v>("cd.calidad@tierosa","cd.calidad@empacadorarosarito.com.mx",3,4),</v>
       </c>
     </row>
-    <row r="74" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>3400</v>
       </c>
@@ -13064,7 +13064,7 @@
         <v>("e.rodriguez@tierosa","e.rodriguez@empacadorarosarito.com.mx",4,14),</v>
       </c>
     </row>
-    <row r="75" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>5072</v>
       </c>
@@ -13149,7 +13149,7 @@
         <v>("marisela.a@tierosa","marisela.a@empacadorarosarito.com.mx",4,7),</v>
       </c>
     </row>
-    <row r="76" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>1849</v>
       </c>
@@ -13234,7 +13234,7 @@
         <v>("i.salcedo@tierosa","i.salcedo@empacadorarosarito.com.mx",4,2),</v>
       </c>
     </row>
-    <row r="77" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>2623</v>
       </c>
@@ -13319,7 +13319,7 @@
         <v>("i.aguilar@tierosa","i.aguilar@empacadorarosarito.com.mx",4,15),</v>
       </c>
     </row>
-    <row r="78" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>3258</v>
       </c>
@@ -13404,7 +13404,7 @@
         <v>("v.langarica@tierosa","v.langarica@empacadorarosarito.com.mx",4,16),</v>
       </c>
     </row>
-    <row r="79" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>1716</v>
       </c>
@@ -13451,11 +13451,11 @@
         <v>1082</v>
       </c>
       <c r="N79" s="53" t="str">
-        <f t="shared" ref="N79:N110" si="41">LEFT(M79,FIND("@",M79))&amp;"tierosa"</f>
+        <f t="shared" ref="N79:N102" si="41">LEFT(M79,FIND("@",M79))&amp;"tierosa"</f>
         <v>k.nunez@tierosa</v>
       </c>
       <c r="O79" s="53">
-        <f t="shared" ref="O79:O110" si="42">_xlfn.XLOOKUP(N79,$AF$2:$AF$90,$AE$2:$AE$90)</f>
+        <f t="shared" ref="O79:O102" si="42">_xlfn.XLOOKUP(N79,$AF$2:$AF$90,$AE$2:$AE$90)</f>
         <v>46</v>
       </c>
       <c r="P79" s="53" t="str">
@@ -13489,7 +13489,7 @@
         <v>("m.ramirez@tierosa","m.ramirez@empacadorarosarito.com.mx",4,14),</v>
       </c>
     </row>
-    <row r="80" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>5255</v>
       </c>
@@ -13574,7 +13574,7 @@
         <v>("r.rios@tierosa","r.rios@empacadorarosarito.com.mx",4,16),</v>
       </c>
     </row>
-    <row r="81" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>4946</v>
       </c>
@@ -13659,7 +13659,7 @@
         <v>("m.travanino@tierosa","m.travanino@empacadorarosarito.com.mx",4,14),</v>
       </c>
     </row>
-    <row r="82" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>5555</v>
       </c>
@@ -13743,7 +13743,7 @@
         <v>("m.diaz@tierosa","m.diaz@empacadorarosarito.com.mx",1,9),</v>
       </c>
     </row>
-    <row r="83" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>5026</v>
       </c>
@@ -13828,7 +13828,7 @@
         <v>("t.bastidas@tierosa","t.bastidas@empacadorarosarito.com.mx",3,17),</v>
       </c>
     </row>
-    <row r="84" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>4894</v>
       </c>
@@ -13913,7 +13913,7 @@
         <v>("supervisor.ens@tierosa","supervisor.ens@empacadorarosarito.com.mx",3,5),</v>
       </c>
     </row>
-    <row r="85" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>5316</v>
       </c>
@@ -13998,7 +13998,7 @@
         <v>("supervisor.her@tierosa","supervisor.her@empacadorarosarito.com.mx",3,3),</v>
       </c>
     </row>
-    <row r="86" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>5661</v>
       </c>
@@ -14083,7 +14083,7 @@
         <v>("supervisor.mex@tierosa","supervisor.mex@empacadorarosarito.com.mx",3,1),</v>
       </c>
     </row>
-    <row r="87" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>314</v>
       </c>
@@ -14168,7 +14168,7 @@
         <v>("supervisor.tij@tierosa","supervisor.tij@empacadorarosarito.com.mx",3,4),</v>
       </c>
     </row>
-    <row r="88" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>3884</v>
       </c>
@@ -14253,7 +14253,7 @@
         <v>("supervisor.obr@tierosa","supervisor.obr@empacadorarosarito.com.mx",3,6),</v>
       </c>
     </row>
-    <row r="89" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>104</v>
       </c>
@@ -14338,7 +14338,7 @@
         <v>("m.fimbres@tierosa","m.fimbres@empacadorarosarito.com.mx",3,17),</v>
       </c>
     </row>
-    <row r="90" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>3504</v>
       </c>
@@ -14420,7 +14420,7 @@
         <v>("admin@tierosa","erosa@empacadorarosarito.com.mx",1,9),</v>
       </c>
     </row>
-    <row r="91" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>5039</v>
       </c>
@@ -14479,7 +14479,7 @@
         <v>(5039,"LARISSA RIVERA RODRIGUEZ","adm.tijuana@empacadorarosarito.com.mx",2,4,7,7),</v>
       </c>
     </row>
-    <row r="92" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>4441</v>
       </c>
@@ -14538,7 +14538,7 @@
         <v>(4441,"KEILA ROCHA TAGLE","k.rocha@empacadorarosarito.com.mx",2,30,48,13),</v>
       </c>
     </row>
-    <row r="93" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>5312</v>
       </c>
@@ -14597,7 +14597,7 @@
         <v>(5312,"MIGUEL RODRIGUEZ BORBON","supervisor.obr@empacadorarosarito.com.mx",6,53,87,6),</v>
       </c>
     </row>
-    <row r="94" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>5637</v>
       </c>
@@ -14656,7 +14656,7 @@
         <v>(5637,"KARINA BERENICE RODRIGUEZ CABALLERO","cxc.tijuana@empacadorarosarito.com.mx",2,11,13,7),</v>
       </c>
     </row>
-    <row r="95" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>5343</v>
       </c>
@@ -14715,7 +14715,7 @@
         <v>(5343,"MARIA ELENA RODRIGUEZ DAVILA","e.rodriguez@empacadorarosarito.com.mx",2,42,73,14),</v>
       </c>
     </row>
-    <row r="96" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>5041</v>
       </c>
@@ -14774,7 +14774,7 @@
         <v>(5041,"VIANEY RODRIGUEZ GARCIA","c.tijuana@empacadorarosarito.com.mx",4,19,30,4),</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>1054</v>
       </c>
@@ -14833,7 +14833,7 @@
         <v>(1054,"HECTOR MANUEL RODRIGUEZ MORONES","h.rodriguez@empacadorarosarito.com.mx",7,37,61,10),</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>2781</v>
       </c>
@@ -14841,7 +14841,7 @@
         <v>166</v>
       </c>
       <c r="C98" s="1" t="str">
-        <f t="shared" ref="C98:C129" si="43">SUBSTITUTE(B98, ",","")</f>
+        <f t="shared" ref="C98:C118" si="43">SUBSTITUTE(B98, ",","")</f>
         <v>RODRIGUEZ PAEZ LUIS ALBERTO</v>
       </c>
       <c r="D98" s="57" t="str">
@@ -14855,21 +14855,21 @@
         <v>163</v>
       </c>
       <c r="G98" s="3">
-        <f t="shared" ref="G98:G129" si="45">_xlfn.XLOOKUP(F98,$T$2:$T$9,$S$2:$S$9)</f>
+        <f t="shared" ref="G98:G118" si="45">_xlfn.XLOOKUP(F98,$T$2:$T$9,$S$2:$S$9)</f>
         <v>6</v>
       </c>
       <c r="H98" s="57" t="s">
         <v>137</v>
       </c>
       <c r="I98" s="57">
-        <f t="shared" ref="I98:I129" si="46">_xlfn.XLOOKUP(H98,$V$2:$V$55,$U$2:$U$55)</f>
+        <f t="shared" ref="I98:I117" si="46">_xlfn.XLOOKUP(H98,$V$2:$V$55,$U$2:$U$55)</f>
         <v>41</v>
       </c>
       <c r="J98" s="57" t="s">
         <v>164</v>
       </c>
       <c r="K98" s="57">
-        <f t="shared" ref="K98:K129" si="47">_xlfn.XLOOKUP(J98,$Y$2:$Y$19,$X$2:$X$19)</f>
+        <f t="shared" ref="K98:K117" si="47">_xlfn.XLOOKUP(J98,$Y$2:$Y$19,$X$2:$X$19)</f>
         <v>6</v>
       </c>
       <c r="L98" s="57" t="str">
@@ -14888,11 +14888,11 @@
         <v>71</v>
       </c>
       <c r="P98" s="53" t="str">
-        <f t="shared" ref="P98:P129" si="49">"("&amp;A98&amp;","""&amp;D98&amp;""","""&amp;M98&amp;""","&amp;G98&amp;","&amp;I98&amp;","&amp;O98&amp;","&amp;K98&amp;"),"</f>
+        <f t="shared" ref="P98:P117" si="49">"("&amp;A98&amp;","""&amp;D98&amp;""","""&amp;M98&amp;""","&amp;G98&amp;","&amp;I98&amp;","&amp;O98&amp;","&amp;K98&amp;"),"</f>
         <v>(2781,"LUIS ALBERTO RODRIGUEZ PAEZ","l.rodriguez@empacadorarosarito.com.mx",6,41,71,6),</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>5119</v>
       </c>
@@ -14955,7 +14955,7 @@
         <v>LUIS ALBERTO</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>4558</v>
       </c>
@@ -15014,7 +15014,7 @@
         <v>(4558,"HUMBERTO ROJAS GERONIMO","ca2.produccion@empacadorarosarito.com.mx",8,21,39,16),</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>2376</v>
       </c>
@@ -15073,7 +15073,7 @@
         <v>(2376,"CYNTHIA LUCIA ROMERO JIMENEZ","enfermeria@empacadorarosarito.com.mx",2,34,52,14),</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>5189</v>
       </c>
@@ -15132,7 +15132,7 @@
         <v>(5189,"NAYDA DEL CARMEN ROQUE CARRILLO","a.nomina@empacadorarosarito.com.mx",2,35,54,14),</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>5230</v>
       </c>
@@ -15186,7 +15186,7 @@
         <v>(5230,"DANIEL ALEJANDRO SALAS MONTOYA","--------------------------------------------------------",4,21,68,4),</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>38</v>
       </c>
@@ -15245,7 +15245,7 @@
         <v>(38,"HECTOR IVAN SALCEDO HERNANDEZ","i.salcedo@empacadorarosarito.com.mx",2,44,75,2),</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>5636</v>
       </c>
@@ -15299,7 +15299,7 @@
         <v>(5636,"MIRIAM SANCHEZ RIVERA","--------------------------------------------------------",2,4,42,7),</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>5196</v>
       </c>
@@ -15358,7 +15358,7 @@
         <v>(5196,"ULISES ADALBERTO SAUCEDA LOPEZ","reclutamiento@empacadorarosarito.com.mx",2,35,55,14),</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>1232</v>
       </c>
@@ -15417,7 +15417,7 @@
         <v>(1232,"CRISTINA SAUCEDO RAMIREZ","c.saucedo@empacadorarosarito.com.mx",2,25,42,12),</v>
       </c>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
         <v>4525</v>
       </c>
@@ -15476,7 +15476,7 @@
         <v>(4525,"GERARDO ALONSO SEGOVIANO SANCHEZ","supervisor.tij@empacadorarosarito.com.mx",4,53,86,4),</v>
       </c>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
         <v>4921</v>
       </c>
@@ -15535,7 +15535,7 @@
         <v>(4921,"NORA GUADALUPE TORRES ONTIVEROS","pv.hermosillo@empacadorarosarito.com.mx",3,20,33,3),</v>
       </c>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>4922</v>
       </c>
@@ -15594,7 +15594,7 @@
         <v>(4922,"MARIA DEL CARMEN TRAVANINO MEJIA","m.travanino@empacadorarosarito.com.mx",2,49,80,14),</v>
       </c>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>3257</v>
       </c>
@@ -15653,7 +15653,7 @@
         <v>(3257,"SILVIA VALENZUELA ENCINAS","pv.obregon@empacadorarosarito.com.mx",6,20,35,6),</v>
       </c>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
         <v>1410</v>
       </c>
@@ -15712,7 +15712,7 @@
         <v>(1410,"JOSE ALFREDO VAZQUEZ LOPEZ","supervisor.mex@empacadorarosarito.com.mx",1,53,85,1),</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
         <v>5225</v>
       </c>
@@ -15771,7 +15771,7 @@
         <v>(5225,"IVER GEOVANNY VELAZCO ARMENDARIZ","apt.tij@empacadorarosarito.com.mx",4,2,4,4),</v>
       </c>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
         <v>3240</v>
       </c>
@@ -15830,7 +15830,7 @@
         <v>(3240,"GRECIA MAGDALENA VILLA CONTRERAS","c2.hermosillo@empacadorarosarito.com.mx",3,18,24,3),</v>
       </c>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
         <v>3740</v>
       </c>
@@ -15889,7 +15889,7 @@
         <v>(3740,"RICARDO VILLALVAZO FALCON","r.villalvazo@empacadorarosarito.com.mx",5,40,64,5),</v>
       </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
         <v>3925</v>
       </c>
@@ -15948,7 +15948,7 @@
         <v>(3925,"JESUS EDUARDO VILLEGAS ARMENTA","j.villegas@empacadorarosarito.com.mx",2,13,18,12),</v>
       </c>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
         <v>4676</v>
       </c>
@@ -16007,7 +16007,7 @@
         <v>(4676,"EMILIO ZAMORA TORRES","e.zamora@empacadorarosarito.com.mx",2,7,10,9),</v>
       </c>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>2242</v>
       </c>
@@ -16050,7 +16050,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q117" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:Q118" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:Q117">
     <sortCondition ref="B1:B117"/>
   </sortState>
@@ -16110,23 +16110,23 @@
       <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.44140625" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="4.77734375" customWidth="1"/>
-    <col min="5" max="5" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="34.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.453125" customWidth="1"/>
+    <col min="2" max="2" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="4.81640625" customWidth="1"/>
+    <col min="5" max="5" width="26.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="34.08984375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B1" s="59" t="s">
         <v>1632</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -16144,7 +16144,7 @@
         <v>("APP ESCRITORIO",1),</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -16162,7 +16162,7 @@
         <v>("APP MÓVIL",1),</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -16183,7 +16183,7 @@
         <v>1637</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -16204,7 +16204,7 @@
         <v>1638</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -16222,7 +16222,7 @@
         <v>("CELULAR",1),</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -16240,7 +16240,7 @@
         <v>("CHECADOR BIOMÉTRICO",1),</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -16258,7 +16258,7 @@
         <v>("CORREO - OFFICE",1),</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -16276,7 +16276,7 @@
         <v>("DASHBOARD",1),</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -16294,7 +16294,7 @@
         <v>("EQUIPO DE CÓMPUTO",1),</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -16312,7 +16312,7 @@
         <v>("FUENTE DE PODER",1),</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -16330,7 +16330,7 @@
         <v>("IMPRESIÓN",1),</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -16348,7 +16348,7 @@
         <v>("IMPRESORA",1),</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -16366,7 +16366,7 @@
         <v>("INTERFACE",1),</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -16384,7 +16384,7 @@
         <v>("MODEM - ENLACE",1),</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -16402,7 +16402,7 @@
         <v>("MONITOR",1),</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -16429,7 +16429,7 @@
         <v>1648</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -16456,7 +16456,7 @@
         <v>1643</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -16483,7 +16483,7 @@
         <v>1644</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -16510,7 +16510,7 @@
         <v>1645</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -16537,7 +16537,7 @@
         <v>1646</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -16564,7 +16564,7 @@
         <v>1647</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -16591,7 +16591,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -16618,7 +16618,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -16636,7 +16636,7 @@
         <v>("TECLADO",1),</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -16654,7 +16654,7 @@
         <v>("TELEFONÍA",1),</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -16672,7 +16672,7 @@
         <v>("TRESS",1),</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -16690,7 +16690,7 @@
         <v>("UPS",1),</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -16708,7 +16708,7 @@
         <v>("WINDOWS",1),</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -16726,7 +16726,7 @@
         <v>("CAPA 8",1),</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -16744,7 +16744,7 @@
         <v>("DRIVERS",1),</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C32">
         <v>2</v>
       </c>
@@ -16753,7 +16753,7 @@
         <v>("SAP",2),</v>
       </c>
     </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C33">
         <v>2</v>
       </c>
@@ -16762,7 +16762,7 @@
         <v>("WINDOWS",2),</v>
       </c>
     </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C34">
         <v>2</v>
       </c>
@@ -16771,7 +16771,7 @@
         <v>("LIQUIDACION",2),</v>
       </c>
     </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C35">
         <v>2</v>
       </c>
@@ -16780,7 +16780,7 @@
         <v>("RED",2),</v>
       </c>
     </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C36">
         <v>2</v>
       </c>
@@ -16789,7 +16789,7 @@
         <v>("EQUIPO DE COMPUTO",2),</v>
       </c>
     </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C37">
         <v>2</v>
       </c>
@@ -16798,7 +16798,7 @@
         <v>("TRESS",2),</v>
       </c>
     </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C38">
         <v>2</v>
       </c>
@@ -16807,7 +16807,7 @@
         <v>("OFFICE",2),</v>
       </c>
     </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C39">
         <v>2</v>
       </c>
@@ -16832,77 +16832,77 @@
       <selection activeCell="BR23" sqref="BR23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.6328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.81640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="224" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="44.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="62.21875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="31.77734375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="78.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="32.109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="21.21875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.08984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="44.6328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="29.6328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="62.1796875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="31.81640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="78.6328125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="32.08984375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="21.1796875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.08984375" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="26" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="19" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.08984375" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="7" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="11.5546875" customWidth="1"/>
-    <col min="38" max="38" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="11.5546875" customWidth="1"/>
-    <col min="40" max="40" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.90625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="6.90625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="8.36328125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="11.54296875" customWidth="1"/>
+    <col min="38" max="38" width="17.6328125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="11.54296875" customWidth="1"/>
+    <col min="40" max="40" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="9.54296875" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="15" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="26.88671875" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="26.90625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="27.36328125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="20.36328125" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="12" bestFit="1" customWidth="1"/>
-    <col min="48" max="49" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="36.109375" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="38.109375" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="43.77734375" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="25.21875" bestFit="1" customWidth="1"/>
-    <col min="64" max="68" width="11.5546875" customWidth="1"/>
-    <col min="69" max="69" width="11.88671875" customWidth="1"/>
-    <col min="70" max="70" width="158.21875" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="48" max="49" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="36.08984375" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="21.90625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="38.08984375" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="43.81640625" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="64" max="68" width="11.54296875" customWidth="1"/>
+    <col min="69" max="69" width="11.90625" customWidth="1"/>
+    <col min="70" max="70" width="158.1796875" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="11.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>227</v>
       </c>
@@ -17117,7 +17117,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="2" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A2" s="24" t="s">
         <v>294</v>
       </c>
@@ -17224,7 +17224,7 @@
       </c>
       <c r="BS2" s="24"/>
     </row>
-    <row r="3" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A3" s="24" t="s">
         <v>302</v>
       </c>
@@ -17361,7 +17361,7 @@
       </c>
       <c r="BS3" s="24"/>
     </row>
-    <row r="4" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A4" s="24" t="s">
         <v>325</v>
       </c>
@@ -17490,7 +17490,7 @@
       </c>
       <c r="BS4" s="24"/>
     </row>
-    <row r="5" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
         <v>325</v>
       </c>
@@ -17617,7 +17617,7 @@
       </c>
       <c r="BS5" s="24"/>
     </row>
-    <row r="6" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A6" s="24" t="s">
         <v>325</v>
       </c>
@@ -17726,7 +17726,7 @@
       </c>
       <c r="BS6" s="24"/>
     </row>
-    <row r="7" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A7" s="24" t="s">
         <v>302</v>
       </c>
@@ -17847,7 +17847,7 @@
       </c>
       <c r="BS7" s="24"/>
     </row>
-    <row r="8" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A8" s="24" t="s">
         <v>325</v>
       </c>
@@ -17968,7 +17968,7 @@
       </c>
       <c r="BS8" s="24"/>
     </row>
-    <row r="9" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A9" s="24" t="s">
         <v>294</v>
       </c>
@@ -18077,7 +18077,7 @@
       </c>
       <c r="BS9" s="24"/>
     </row>
-    <row r="10" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A10" s="24" t="s">
         <v>385</v>
       </c>
@@ -18188,7 +18188,7 @@
       </c>
       <c r="BS10" s="24"/>
     </row>
-    <row r="11" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A11" s="24" t="s">
         <v>325</v>
       </c>
@@ -18315,7 +18315,7 @@
       </c>
       <c r="BS11" s="24"/>
     </row>
-    <row r="12" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A12" s="24" t="s">
         <v>294</v>
       </c>
@@ -18422,7 +18422,7 @@
       </c>
       <c r="BS12" s="24"/>
     </row>
-    <row r="13" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A13" s="24" t="s">
         <v>294</v>
       </c>
@@ -18529,7 +18529,7 @@
       </c>
       <c r="BS13" s="24"/>
     </row>
-    <row r="14" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A14" s="24" t="s">
         <v>294</v>
       </c>
@@ -18634,7 +18634,7 @@
       </c>
       <c r="BS14" s="24"/>
     </row>
-    <row r="15" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A15" s="24" t="s">
         <v>325</v>
       </c>
@@ -18747,7 +18747,7 @@
       </c>
       <c r="BS15" s="24"/>
     </row>
-    <row r="16" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A16" s="24" t="s">
         <v>302</v>
       </c>
@@ -18856,7 +18856,7 @@
       </c>
       <c r="BS16" s="24"/>
     </row>
-    <row r="17" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A17" s="24" t="s">
         <v>325</v>
       </c>
@@ -18979,7 +18979,7 @@
       </c>
       <c r="BS17" s="24"/>
     </row>
-    <row r="18" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A18" s="24" t="s">
         <v>325</v>
       </c>
@@ -19102,7 +19102,7 @@
       </c>
       <c r="BS18" s="24"/>
     </row>
-    <row r="19" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A19" s="24" t="s">
         <v>325</v>
       </c>
@@ -19223,7 +19223,7 @@
       </c>
       <c r="BS19" s="24"/>
     </row>
-    <row r="20" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A20" s="24" t="s">
         <v>325</v>
       </c>
@@ -19348,7 +19348,7 @@
       </c>
       <c r="BS20" s="30"/>
     </row>
-    <row r="21" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A21" s="24" t="s">
         <v>302</v>
       </c>
@@ -19467,7 +19467,7 @@
       </c>
       <c r="BS21" s="24"/>
     </row>
-    <row r="22" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A22" s="24" t="s">
         <v>325</v>
       </c>
@@ -19566,7 +19566,7 @@
       <c r="BR22" s="24"/>
       <c r="BS22" s="30"/>
     </row>
-    <row r="23" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A23" s="24" t="s">
         <v>302</v>
       </c>
@@ -19683,7 +19683,7 @@
       </c>
       <c r="BS23" s="24"/>
     </row>
-    <row r="24" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A24" s="24" t="s">
         <v>302</v>
       </c>
@@ -19800,7 +19800,7 @@
       </c>
       <c r="BS24" s="30"/>
     </row>
-    <row r="25" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A25" s="24" t="s">
         <v>302</v>
       </c>
@@ -19917,7 +19917,7 @@
       </c>
       <c r="BS25" s="30"/>
     </row>
-    <row r="26" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A26" s="24" t="s">
         <v>302</v>
       </c>
@@ -20010,7 +20010,7 @@
       <c r="BR26" s="24"/>
       <c r="BS26" s="24"/>
     </row>
-    <row r="27" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A27" s="24" t="s">
         <v>302</v>
       </c>
@@ -20101,7 +20101,7 @@
       <c r="BR27" s="24"/>
       <c r="BS27" s="24"/>
     </row>
-    <row r="28" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A28" s="24" t="s">
         <v>302</v>
       </c>
@@ -20192,7 +20192,7 @@
       <c r="BR28" s="24"/>
       <c r="BS28" s="24"/>
     </row>
-    <row r="29" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A29" s="24" t="s">
         <v>302</v>
       </c>
@@ -20283,7 +20283,7 @@
       <c r="BR29" s="37"/>
       <c r="BS29" s="24"/>
     </row>
-    <row r="30" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A30" s="24" t="s">
         <v>302</v>
       </c>
@@ -20374,7 +20374,7 @@
       <c r="BR30" s="24"/>
       <c r="BS30" s="24"/>
     </row>
-    <row r="31" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A31" s="24" t="s">
         <v>302</v>
       </c>
@@ -20465,7 +20465,7 @@
       <c r="BR31" s="24"/>
       <c r="BS31" s="24"/>
     </row>
-    <row r="32" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A32" s="24" t="s">
         <v>302</v>
       </c>
@@ -20556,7 +20556,7 @@
       <c r="BR32" s="24"/>
       <c r="BS32" s="24"/>
     </row>
-    <row r="33" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A33" s="24" t="s">
         <v>302</v>
       </c>
@@ -20647,7 +20647,7 @@
       <c r="BR33" s="24"/>
       <c r="BS33" s="24"/>
     </row>
-    <row r="34" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A34" s="24" t="s">
         <v>302</v>
       </c>
@@ -20730,7 +20730,7 @@
       <c r="BR34" s="24"/>
       <c r="BS34" s="24"/>
     </row>
-    <row r="35" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A35" s="24" t="s">
         <v>302</v>
       </c>
@@ -20853,7 +20853,7 @@
       </c>
       <c r="BS35" s="24"/>
     </row>
-    <row r="36" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A36" s="24" t="s">
         <v>490</v>
       </c>
@@ -20954,7 +20954,7 @@
       <c r="BR36" s="24"/>
       <c r="BS36" s="24"/>
     </row>
-    <row r="37" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A37" s="24" t="s">
         <v>325</v>
       </c>
@@ -21079,7 +21079,7 @@
       </c>
       <c r="BS37" s="30"/>
     </row>
-    <row r="38" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A38" s="24" t="s">
         <v>325</v>
       </c>
@@ -21206,7 +21206,7 @@
       </c>
       <c r="BS38" s="24"/>
     </row>
-    <row r="39" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A39" s="24" t="s">
         <v>325</v>
       </c>
@@ -21329,7 +21329,7 @@
       </c>
       <c r="BS39" s="30"/>
     </row>
-    <row r="40" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A40" s="24" t="s">
         <v>325</v>
       </c>
@@ -21448,7 +21448,7 @@
       </c>
       <c r="BS40" s="24"/>
     </row>
-    <row r="41" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A41" s="24" t="s">
         <v>325</v>
       </c>
@@ -21565,7 +21565,7 @@
       </c>
       <c r="BS41" s="24"/>
     </row>
-    <row r="42" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A42" s="24" t="s">
         <v>302</v>
       </c>
@@ -21694,7 +21694,7 @@
       </c>
       <c r="BS42" s="24"/>
     </row>
-    <row r="43" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A43" s="24" t="s">
         <v>325</v>
       </c>
@@ -21817,7 +21817,7 @@
       </c>
       <c r="BS43" s="24"/>
     </row>
-    <row r="44" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A44" s="24" t="s">
         <v>490</v>
       </c>
@@ -21928,7 +21928,7 @@
       </c>
       <c r="BS44" s="24"/>
     </row>
-    <row r="45" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A45" s="24" t="s">
         <v>490</v>
       </c>
@@ -22053,7 +22053,7 @@
       </c>
       <c r="BS45" s="24"/>
     </row>
-    <row r="46" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A46" s="24" t="s">
         <v>490</v>
       </c>
@@ -22156,7 +22156,7 @@
       </c>
       <c r="BS46" s="24"/>
     </row>
-    <row r="47" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A47" s="24" t="s">
         <v>302</v>
       </c>
@@ -22271,7 +22271,7 @@
       </c>
       <c r="BS47" s="24"/>
     </row>
-    <row r="48" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A48" s="24" t="s">
         <v>325</v>
       </c>
@@ -22392,7 +22392,7 @@
       </c>
       <c r="BS48" s="24"/>
     </row>
-    <row r="49" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A49" s="24" t="s">
         <v>302</v>
       </c>
@@ -22501,7 +22501,7 @@
       </c>
       <c r="BS49" s="24"/>
     </row>
-    <row r="50" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A50" s="24" t="s">
         <v>325</v>
       </c>
@@ -22620,7 +22620,7 @@
       </c>
       <c r="BS50" s="24"/>
     </row>
-    <row r="51" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A51" s="24" t="s">
         <v>325</v>
       </c>
@@ -22753,7 +22753,7 @@
       </c>
       <c r="BS51" s="24"/>
     </row>
-    <row r="52" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A52" s="24" t="s">
         <v>663</v>
       </c>
@@ -22864,7 +22864,7 @@
       </c>
       <c r="BS52" s="24"/>
     </row>
-    <row r="53" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A53" s="24" t="s">
         <v>325</v>
       </c>
@@ -22985,7 +22985,7 @@
       </c>
       <c r="BS53" s="24"/>
     </row>
-    <row r="54" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A54" s="24" t="s">
         <v>302</v>
       </c>
@@ -23122,7 +23122,7 @@
       </c>
       <c r="BS54" s="24"/>
     </row>
-    <row r="55" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A55" s="24" t="s">
         <v>302</v>
       </c>
@@ -23249,7 +23249,7 @@
       </c>
       <c r="BS55" s="24"/>
     </row>
-    <row r="56" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A56" s="24" t="s">
         <v>302</v>
       </c>
@@ -23372,7 +23372,7 @@
       </c>
       <c r="BS56" s="24"/>
     </row>
-    <row r="57" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A57" s="24" t="s">
         <v>302</v>
       </c>
@@ -23485,7 +23485,7 @@
       </c>
       <c r="BS57" s="30"/>
     </row>
-    <row r="58" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A58" s="24" t="s">
         <v>302</v>
       </c>
@@ -23594,7 +23594,7 @@
       </c>
       <c r="BS58" s="30"/>
     </row>
-    <row r="59" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A59" s="24" t="s">
         <v>325</v>
       </c>
@@ -23719,7 +23719,7 @@
       </c>
       <c r="BS59" s="24"/>
     </row>
-    <row r="60" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A60" s="24" t="s">
         <v>663</v>
       </c>
@@ -23844,7 +23844,7 @@
       </c>
       <c r="BS60" s="24"/>
     </row>
-    <row r="61" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A61" s="24" t="s">
         <v>663</v>
       </c>
@@ -23975,7 +23975,7 @@
       </c>
       <c r="BS61" s="24"/>
     </row>
-    <row r="62" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A62" s="24" t="s">
         <v>490</v>
       </c>
@@ -24090,7 +24090,7 @@
       </c>
       <c r="BS62" s="24"/>
     </row>
-    <row r="63" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A63" s="24" t="s">
         <v>663</v>
       </c>
@@ -24219,7 +24219,7 @@
       </c>
       <c r="BS63" s="24"/>
     </row>
-    <row r="64" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A64" s="24" t="s">
         <v>663</v>
       </c>
@@ -24340,7 +24340,7 @@
       </c>
       <c r="BS64" s="24"/>
     </row>
-    <row r="65" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A65" s="24" t="s">
         <v>663</v>
       </c>
@@ -24469,7 +24469,7 @@
       </c>
       <c r="BS65" s="24"/>
     </row>
-    <row r="66" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A66" s="24" t="s">
         <v>302</v>
       </c>
@@ -24576,7 +24576,7 @@
       </c>
       <c r="BS66" s="24"/>
     </row>
-    <row r="67" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A67" s="24" t="s">
         <v>663</v>
       </c>
@@ -24697,7 +24697,7 @@
       </c>
       <c r="BS67" s="30"/>
     </row>
-    <row r="68" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A68" s="24" t="s">
         <v>663</v>
       </c>
@@ -24834,7 +24834,7 @@
       </c>
       <c r="BS68" s="24"/>
     </row>
-    <row r="69" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A69" s="24" t="s">
         <v>663</v>
       </c>
@@ -24965,7 +24965,7 @@
       </c>
       <c r="BS69" s="24"/>
     </row>
-    <row r="70" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A70" s="24" t="s">
         <v>663</v>
       </c>
@@ -25076,7 +25076,7 @@
       </c>
       <c r="BS70" s="24"/>
     </row>
-    <row r="71" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A71" s="24" t="s">
         <v>663</v>
       </c>
@@ -25183,7 +25183,7 @@
       </c>
       <c r="BS71" s="24"/>
     </row>
-    <row r="72" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A72" s="24" t="s">
         <v>663</v>
       </c>
@@ -25294,7 +25294,7 @@
       </c>
       <c r="BS72" s="24"/>
     </row>
-    <row r="73" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A73" s="24" t="s">
         <v>490</v>
       </c>
@@ -25401,7 +25401,7 @@
       </c>
       <c r="BS73" s="24"/>
     </row>
-    <row r="74" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A74" s="24" t="s">
         <v>663</v>
       </c>
@@ -25530,7 +25530,7 @@
       </c>
       <c r="BS74" s="24"/>
     </row>
-    <row r="75" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A75" s="24" t="s">
         <v>302</v>
       </c>
@@ -25645,7 +25645,7 @@
       </c>
       <c r="BS75" s="24"/>
     </row>
-    <row r="76" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A76" s="24" t="s">
         <v>663</v>
       </c>
@@ -25778,7 +25778,7 @@
       </c>
       <c r="BS76" s="24"/>
     </row>
-    <row r="77" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A77" s="24" t="s">
         <v>663</v>
       </c>
@@ -25907,7 +25907,7 @@
       </c>
       <c r="BS77" s="24"/>
     </row>
-    <row r="78" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A78" s="24" t="s">
         <v>663</v>
       </c>
@@ -26030,7 +26030,7 @@
       </c>
       <c r="BS78" s="24"/>
     </row>
-    <row r="79" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A79" s="24" t="s">
         <v>325</v>
       </c>
@@ -26147,7 +26147,7 @@
       </c>
       <c r="BS79" s="24"/>
     </row>
-    <row r="80" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A80" s="24" t="s">
         <v>302</v>
       </c>
@@ -26256,7 +26256,7 @@
       </c>
       <c r="BS80" s="24"/>
     </row>
-    <row r="81" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A81" s="24" t="s">
         <v>663</v>
       </c>
@@ -26385,7 +26385,7 @@
       </c>
       <c r="BS81" s="24"/>
     </row>
-    <row r="82" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A82" s="24" t="s">
         <v>663</v>
       </c>
@@ -26508,7 +26508,7 @@
       </c>
       <c r="BS82" s="24"/>
     </row>
-    <row r="83" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A83" s="24" t="s">
         <v>302</v>
       </c>
@@ -26651,7 +26651,7 @@
       </c>
       <c r="BS83" s="24"/>
     </row>
-    <row r="84" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A84" s="24" t="s">
         <v>302</v>
       </c>
@@ -26764,7 +26764,7 @@
       </c>
       <c r="BS84" s="24"/>
     </row>
-    <row r="85" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A85" s="24" t="s">
         <v>302</v>
       </c>
@@ -26897,7 +26897,7 @@
       </c>
       <c r="BS85" s="24"/>
     </row>
-    <row r="86" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A86" s="24" t="s">
         <v>907</v>
       </c>
@@ -27012,7 +27012,7 @@
       </c>
       <c r="BS86" s="24"/>
     </row>
-    <row r="87" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A87" s="24" t="s">
         <v>302</v>
       </c>
@@ -27125,7 +27125,7 @@
       </c>
       <c r="BS87" s="24"/>
     </row>
-    <row r="88" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A88" s="24" t="s">
         <v>385</v>
       </c>
@@ -27244,7 +27244,7 @@
       </c>
       <c r="BS88" s="24"/>
     </row>
-    <row r="89" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A89" s="24" t="s">
         <v>302</v>
       </c>
@@ -27371,7 +27371,7 @@
       </c>
       <c r="BS89" s="24"/>
     </row>
-    <row r="90" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A90" s="24" t="s">
         <v>302</v>
       </c>
@@ -27512,7 +27512,7 @@
       </c>
       <c r="BS90" s="24"/>
     </row>
-    <row r="91" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A91" s="24" t="s">
         <v>302</v>
       </c>
@@ -27645,7 +27645,7 @@
       </c>
       <c r="BS91" s="24"/>
     </row>
-    <row r="92" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A92" s="24" t="s">
         <v>302</v>
       </c>
@@ -27768,7 +27768,7 @@
       </c>
       <c r="BS92" s="24"/>
     </row>
-    <row r="93" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A93" s="24" t="s">
         <v>302</v>
       </c>
@@ -27788,10 +27788,10 @@
       <c r="G93" s="24" t="s">
         <v>946</v>
       </c>
-      <c r="H93" s="65"/>
-      <c r="I93" s="65"/>
-      <c r="J93" s="65"/>
-      <c r="K93" s="65"/>
+      <c r="H93" s="64"/>
+      <c r="I93" s="64"/>
+      <c r="J93" s="64"/>
+      <c r="K93" s="64"/>
       <c r="L93" s="32"/>
       <c r="M93" s="32" t="s">
         <v>480</v>
@@ -27869,7 +27869,7 @@
       </c>
       <c r="BS93" s="24"/>
     </row>
-    <row r="94" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A94" s="24" t="s">
         <v>302</v>
       </c>
@@ -27986,7 +27986,7 @@
       </c>
       <c r="BS94" s="24"/>
     </row>
-    <row r="95" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A95" s="24" t="s">
         <v>490</v>
       </c>
@@ -28107,7 +28107,7 @@
       </c>
       <c r="BS95" s="24"/>
     </row>
-    <row r="96" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A96" s="24" t="s">
         <v>302</v>
       </c>
@@ -28222,7 +28222,7 @@
       </c>
       <c r="BS96" s="24"/>
     </row>
-    <row r="97" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A97" s="24" t="s">
         <v>302</v>
       </c>
@@ -28339,7 +28339,7 @@
       </c>
       <c r="BS97" s="24"/>
     </row>
-    <row r="98" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A98" s="24" t="s">
         <v>302</v>
       </c>
@@ -28450,7 +28450,7 @@
       </c>
       <c r="BS98" s="24"/>
     </row>
-    <row r="99" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A99" s="24" t="s">
         <v>302</v>
       </c>
@@ -28571,7 +28571,7 @@
       </c>
       <c r="BS99" s="24"/>
     </row>
-    <row r="100" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A100" s="24" t="s">
         <v>302</v>
       </c>
@@ -28708,7 +28708,7 @@
       </c>
       <c r="BS100" s="24"/>
     </row>
-    <row r="101" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A101" s="24" t="s">
         <v>302</v>
       </c>
@@ -28833,7 +28833,7 @@
       </c>
       <c r="BS101" s="24"/>
     </row>
-    <row r="102" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A102" s="24" t="s">
         <v>385</v>
       </c>
@@ -28944,7 +28944,7 @@
       </c>
       <c r="BS102" s="24"/>
     </row>
-    <row r="103" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A103" s="24" t="s">
         <v>302</v>
       </c>
@@ -29083,7 +29083,7 @@
       </c>
       <c r="BS103" s="24"/>
     </row>
-    <row r="104" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A104" s="24" t="s">
         <v>302</v>
       </c>
@@ -29202,7 +29202,7 @@
       </c>
       <c r="BS104" s="24"/>
     </row>
-    <row r="105" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A105" s="24" t="s">
         <v>325</v>
       </c>
@@ -29301,7 +29301,7 @@
       </c>
       <c r="BS105" s="24"/>
     </row>
-    <row r="106" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A106" s="24" t="s">
         <v>302</v>
       </c>
@@ -29426,7 +29426,7 @@
       </c>
       <c r="BS106" s="24"/>
     </row>
-    <row r="107" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A107" s="24" t="s">
         <v>302</v>
       </c>
@@ -29547,7 +29547,7 @@
       </c>
       <c r="BS107" s="24"/>
     </row>
-    <row r="108" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A108" s="24" t="s">
         <v>663</v>
       </c>
@@ -29654,7 +29654,7 @@
       </c>
       <c r="BS108" s="24"/>
     </row>
-    <row r="109" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A109" s="24" t="s">
         <v>302</v>
       </c>
@@ -29765,7 +29765,7 @@
       </c>
       <c r="BS109" s="24"/>
     </row>
-    <row r="110" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A110" s="24" t="s">
         <v>302</v>
       </c>
@@ -29878,7 +29878,7 @@
       </c>
       <c r="BS110" s="24"/>
     </row>
-    <row r="111" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A111" s="24" t="s">
         <v>302</v>
       </c>
@@ -30001,7 +30001,7 @@
       </c>
       <c r="BS111" s="24"/>
     </row>
-    <row r="112" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A112" s="24" t="s">
         <v>325</v>
       </c>
@@ -30118,7 +30118,7 @@
       </c>
       <c r="BS112" s="24"/>
     </row>
-    <row r="113" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A113" s="24" t="s">
         <v>663</v>
       </c>
@@ -30229,7 +30229,7 @@
       </c>
       <c r="BS113" s="24"/>
     </row>
-    <row r="114" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A114" s="24" t="s">
         <v>302</v>
       </c>
@@ -30368,7 +30368,7 @@
       </c>
       <c r="BS114" s="24"/>
     </row>
-    <row r="115" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A115" s="24" t="s">
         <v>663</v>
       </c>
@@ -30491,7 +30491,7 @@
       </c>
       <c r="BS115" s="24"/>
     </row>
-    <row r="116" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A116" s="24" t="s">
         <v>302</v>
       </c>
@@ -30626,7 +30626,7 @@
       </c>
       <c r="BS116" s="24"/>
     </row>
-    <row r="117" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A117" s="24" t="s">
         <v>663</v>
       </c>
@@ -30652,8 +30652,8 @@
       <c r="I117" s="26"/>
       <c r="J117" s="26"/>
       <c r="K117" s="26"/>
-      <c r="L117" s="65"/>
-      <c r="M117" s="65"/>
+      <c r="L117" s="64"/>
+      <c r="M117" s="64"/>
       <c r="N117" s="24"/>
       <c r="O117" s="24"/>
       <c r="P117" s="24"/>
@@ -30733,7 +30733,7 @@
       </c>
       <c r="BS117" s="24"/>
     </row>
-    <row r="118" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A118" s="24" t="s">
         <v>490</v>
       </c>
@@ -30846,7 +30846,7 @@
       </c>
       <c r="BS118" s="24"/>
     </row>
-    <row r="119" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A119" s="24" t="s">
         <v>663</v>
       </c>
@@ -30967,7 +30967,7 @@
       </c>
       <c r="BS119" s="24"/>
     </row>
-    <row r="120" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A120" s="24" t="s">
         <v>302</v>
       </c>
@@ -31092,7 +31092,7 @@
       </c>
       <c r="BS120" s="24"/>
     </row>
-    <row r="121" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A121" s="24" t="s">
         <v>302</v>
       </c>
@@ -31217,7 +31217,7 @@
       </c>
       <c r="BS121" s="24"/>
     </row>
-    <row r="122" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A122" s="24" t="s">
         <v>663</v>
       </c>
@@ -31330,7 +31330,7 @@
       </c>
       <c r="BS122" s="24"/>
     </row>
-    <row r="123" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A123" s="24" t="s">
         <v>325</v>
       </c>
@@ -31451,7 +31451,7 @@
       </c>
       <c r="BS123" s="24"/>
     </row>
-    <row r="124" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A124" s="24" t="s">
         <v>302</v>
       </c>
@@ -31536,7 +31536,7 @@
       <c r="BR124" s="24"/>
       <c r="BS124" s="24"/>
     </row>
-    <row r="125" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A125" s="24" t="s">
         <v>302</v>
       </c>
@@ -31625,7 +31625,7 @@
       <c r="BR125" s="24"/>
       <c r="BS125" s="24"/>
     </row>
-    <row r="126" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A126" s="24" t="s">
         <v>302</v>
       </c>
@@ -31716,7 +31716,7 @@
       <c r="BR126" s="24"/>
       <c r="BS126" s="24"/>
     </row>
-    <row r="127" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A127" s="24" t="s">
         <v>302</v>
       </c>
@@ -31829,7 +31829,7 @@
       </c>
       <c r="BS127" s="24"/>
     </row>
-    <row r="128" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A128" s="24" t="s">
         <v>302</v>
       </c>
@@ -31970,7 +31970,7 @@
       </c>
       <c r="BS128" s="24"/>
     </row>
-    <row r="129" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A129" s="24" t="s">
         <v>663</v>
       </c>
@@ -32079,7 +32079,7 @@
       </c>
       <c r="BS129" s="24"/>
     </row>
-    <row r="130" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A130" s="24" t="s">
         <v>480</v>
       </c>
@@ -32178,7 +32178,7 @@
       </c>
       <c r="BS130" s="24"/>
     </row>
-    <row r="131" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A131" s="24" t="s">
         <v>490</v>
       </c>
@@ -32291,7 +32291,7 @@
       </c>
       <c r="BS131" s="24"/>
     </row>
-    <row r="132" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A132" s="24" t="s">
         <v>663</v>
       </c>
@@ -32402,7 +32402,7 @@
       </c>
       <c r="BS132" s="24"/>
     </row>
-    <row r="133" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A133" s="24" t="s">
         <v>490</v>
       </c>
@@ -32513,7 +32513,7 @@
       </c>
       <c r="BS133" s="24"/>
     </row>
-    <row r="134" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A134" s="24" t="s">
         <v>490</v>
       </c>
@@ -32630,7 +32630,7 @@
       </c>
       <c r="BS134" s="24"/>
     </row>
-    <row r="135" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A135" s="24" t="s">
         <v>663</v>
       </c>
@@ -32743,7 +32743,7 @@
       </c>
       <c r="BS135" s="24"/>
     </row>
-    <row r="136" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A136" s="24" t="s">
         <v>302</v>
       </c>
@@ -32872,7 +32872,7 @@
       </c>
       <c r="BS136" s="24"/>
     </row>
-    <row r="137" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A137" s="24" t="s">
         <v>490</v>
       </c>
@@ -32993,7 +32993,7 @@
         <v>45962</v>
       </c>
     </row>
-    <row r="138" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A138" s="24" t="s">
         <v>325</v>
       </c>
@@ -33112,7 +33112,7 @@
         <v>45962</v>
       </c>
     </row>
-    <row r="139" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A139" s="24" t="s">
         <v>490</v>
       </c>
@@ -33235,7 +33235,7 @@
       </c>
       <c r="BS139" s="24"/>
     </row>
-    <row r="140" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A140" s="24" t="s">
         <v>490</v>
       </c>
@@ -33352,7 +33352,7 @@
       </c>
       <c r="BS140" s="24"/>
     </row>
-    <row r="141" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A141" s="24" t="s">
         <v>663</v>
       </c>
@@ -33441,7 +33441,7 @@
       </c>
       <c r="BS141" s="24"/>
     </row>
-    <row r="142" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A142" s="24" t="s">
         <v>490</v>
       </c>
@@ -33528,7 +33528,7 @@
       <c r="BR142" s="24"/>
       <c r="BS142" s="24"/>
     </row>
-    <row r="143" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A143" s="24" t="s">
         <v>490</v>
       </c>
@@ -33615,7 +33615,7 @@
       <c r="BR143" s="24"/>
       <c r="BS143" s="24"/>
     </row>
-    <row r="144" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A144" s="24" t="s">
         <v>490</v>
       </c>
@@ -33702,7 +33702,7 @@
       <c r="BR144" s="24"/>
       <c r="BS144" s="24"/>
     </row>
-    <row r="145" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A145" s="24" t="s">
         <v>490</v>
       </c>
@@ -33789,7 +33789,7 @@
       <c r="BR145" s="24"/>
       <c r="BS145" s="24"/>
     </row>
-    <row r="146" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A146" s="24" t="s">
         <v>325</v>
       </c>
@@ -33878,7 +33878,7 @@
       <c r="BR146" s="24"/>
       <c r="BS146" s="24"/>
     </row>
-    <row r="147" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A147" s="24" t="s">
         <v>325</v>
       </c>
@@ -33967,7 +33967,7 @@
       <c r="BR147" s="24"/>
       <c r="BS147" s="24"/>
     </row>
-    <row r="148" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A148" s="24" t="s">
         <v>663</v>
       </c>
@@ -34054,7 +34054,7 @@
       <c r="BR148" s="24"/>
       <c r="BS148" s="24"/>
     </row>
-    <row r="149" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A149" s="24" t="s">
         <v>663</v>
       </c>
@@ -34141,7 +34141,7 @@
       <c r="BR149" s="24"/>
       <c r="BS149" s="24"/>
     </row>
-    <row r="150" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A150" s="24" t="s">
         <v>663</v>
       </c>
@@ -34228,7 +34228,7 @@
       <c r="BR150" s="24"/>
       <c r="BS150" s="24"/>
     </row>
-    <row r="151" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A151" s="24" t="s">
         <v>663</v>
       </c>
@@ -34315,7 +34315,7 @@
       <c r="BR151" s="24"/>
       <c r="BS151" s="24"/>
     </row>
-    <row r="152" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A152" s="24" t="s">
         <v>490</v>
       </c>
@@ -34402,7 +34402,7 @@
       <c r="BR152" s="24"/>
       <c r="BS152" s="24"/>
     </row>
-    <row r="153" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A153" s="24" t="s">
         <v>294</v>
       </c>
@@ -34491,7 +34491,7 @@
       <c r="BR153" s="24"/>
       <c r="BS153" s="24"/>
     </row>
-    <row r="154" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A154" s="24" t="s">
         <v>490</v>
       </c>
@@ -34580,7 +34580,7 @@
       <c r="BR154" s="24"/>
       <c r="BS154" s="24"/>
     </row>
-    <row r="155" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A155" s="24" t="s">
         <v>907</v>
       </c>
@@ -34669,7 +34669,7 @@
       <c r="BR155" s="24"/>
       <c r="BS155" s="24"/>
     </row>
-    <row r="156" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A156" s="24" t="s">
         <v>663</v>
       </c>
@@ -34758,7 +34758,7 @@
       <c r="BR156" s="24"/>
       <c r="BS156" s="24"/>
     </row>
-    <row r="157" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A157" s="24" t="s">
         <v>663</v>
       </c>
@@ -34847,7 +34847,7 @@
       <c r="BR157" s="24"/>
       <c r="BS157" s="24"/>
     </row>
-    <row r="158" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A158" s="24" t="s">
         <v>663</v>
       </c>
@@ -34936,7 +34936,7 @@
       <c r="BR158" s="24"/>
       <c r="BS158" s="24"/>
     </row>
-    <row r="159" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A159" s="24" t="s">
         <v>663</v>
       </c>
@@ -35025,7 +35025,7 @@
       <c r="BR159" s="24"/>
       <c r="BS159" s="24"/>
     </row>
-    <row r="160" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A160" s="24" t="s">
         <v>663</v>
       </c>
@@ -35112,7 +35112,7 @@
       <c r="BR160" s="24"/>
       <c r="BS160" s="24"/>
     </row>
-    <row r="161" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A161" s="24" t="s">
         <v>663</v>
       </c>
@@ -35199,7 +35199,7 @@
       <c r="BR161" s="24"/>
       <c r="BS161" s="24"/>
     </row>
-    <row r="162" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A162" s="24" t="s">
         <v>663</v>
       </c>
@@ -35288,7 +35288,7 @@
       <c r="BR162" s="24"/>
       <c r="BS162" s="24"/>
     </row>
-    <row r="163" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A163" s="24" t="s">
         <v>663</v>
       </c>
@@ -35377,7 +35377,7 @@
       <c r="BR163" s="24"/>
       <c r="BS163" s="24"/>
     </row>
-    <row r="164" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A164" s="24" t="s">
         <v>663</v>
       </c>
@@ -35466,7 +35466,7 @@
       <c r="BR164" s="24"/>
       <c r="BS164" s="24"/>
     </row>
-    <row r="165" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A165" s="24" t="s">
         <v>663</v>
       </c>
@@ -35555,7 +35555,7 @@
       <c r="BR165" s="24"/>
       <c r="BS165" s="24"/>
     </row>
-    <row r="166" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A166" s="24" t="s">
         <v>663</v>
       </c>
@@ -35644,7 +35644,7 @@
       <c r="BR166" s="24"/>
       <c r="BS166" s="24"/>
     </row>
-    <row r="167" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A167" s="24" t="s">
         <v>663</v>
       </c>
@@ -35733,7 +35733,7 @@
       <c r="BR167" s="24"/>
       <c r="BS167" s="24"/>
     </row>
-    <row r="168" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A168" s="24" t="s">
         <v>663</v>
       </c>
@@ -35822,7 +35822,7 @@
       <c r="BR168" s="24"/>
       <c r="BS168" s="24"/>
     </row>
-    <row r="169" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A169" s="24" t="s">
         <v>663</v>
       </c>
@@ -35911,7 +35911,7 @@
       <c r="BR169" s="24"/>
       <c r="BS169" s="24"/>
     </row>
-    <row r="170" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A170" s="24" t="s">
         <v>663</v>
       </c>
@@ -36000,7 +36000,7 @@
       <c r="BR170" s="24"/>
       <c r="BS170" s="24"/>
     </row>
-    <row r="171" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A171" s="24" t="s">
         <v>663</v>
       </c>
@@ -36089,7 +36089,7 @@
       <c r="BR171" s="24"/>
       <c r="BS171" s="24"/>
     </row>
-    <row r="172" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A172" s="24" t="s">
         <v>663</v>
       </c>
@@ -36178,7 +36178,7 @@
       <c r="BR172" s="24"/>
       <c r="BS172" s="24"/>
     </row>
-    <row r="173" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A173" s="24" t="s">
         <v>663</v>
       </c>
@@ -36267,7 +36267,7 @@
       <c r="BR173" s="24"/>
       <c r="BS173" s="24"/>
     </row>
-    <row r="174" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A174" s="24" t="s">
         <v>663</v>
       </c>
@@ -36356,7 +36356,7 @@
       <c r="BR174" s="24"/>
       <c r="BS174" s="24"/>
     </row>
-    <row r="175" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A175" s="24" t="s">
         <v>663</v>
       </c>
@@ -36445,7 +36445,7 @@
       <c r="BR175" s="24"/>
       <c r="BS175" s="24"/>
     </row>
-    <row r="176" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A176" s="24" t="s">
         <v>663</v>
       </c>
@@ -36534,7 +36534,7 @@
       <c r="BR176" s="24"/>
       <c r="BS176" s="24"/>
     </row>
-    <row r="177" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A177" s="24" t="s">
         <v>663</v>
       </c>
@@ -36623,7 +36623,7 @@
       <c r="BR177" s="24"/>
       <c r="BS177" s="24"/>
     </row>
-    <row r="178" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A178" s="24" t="s">
         <v>663</v>
       </c>
@@ -36710,7 +36710,7 @@
       <c r="BR178" s="24"/>
       <c r="BS178" s="24"/>
     </row>
-    <row r="179" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A179" s="24" t="s">
         <v>663</v>
       </c>
@@ -36799,7 +36799,7 @@
       <c r="BR179" s="24"/>
       <c r="BS179" s="24"/>
     </row>
-    <row r="180" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A180" s="24" t="s">
         <v>663</v>
       </c>
@@ -36888,7 +36888,7 @@
       <c r="BR180" s="24"/>
       <c r="BS180" s="24"/>
     </row>
-    <row r="181" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A181" s="24" t="s">
         <v>663</v>
       </c>
@@ -36977,7 +36977,7 @@
       <c r="BR181" s="24"/>
       <c r="BS181" s="24"/>
     </row>
-    <row r="182" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A182" s="24" t="s">
         <v>663</v>
       </c>
@@ -37066,7 +37066,7 @@
       <c r="BR182" s="24"/>
       <c r="BS182" s="24"/>
     </row>
-    <row r="183" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A183" s="24" t="s">
         <v>663</v>
       </c>
@@ -37155,7 +37155,7 @@
       <c r="BR183" s="24"/>
       <c r="BS183" s="24"/>
     </row>
-    <row r="184" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A184" s="24" t="s">
         <v>325</v>
       </c>
@@ -37242,7 +37242,7 @@
       <c r="BR184" s="24"/>
       <c r="BS184" s="24"/>
     </row>
-    <row r="185" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A185" s="24" t="s">
         <v>325</v>
       </c>
@@ -37333,7 +37333,7 @@
       <c r="BR185" s="24"/>
       <c r="BS185" s="24"/>
     </row>
-    <row r="186" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A186" s="24" t="s">
         <v>663</v>
       </c>
@@ -37422,7 +37422,7 @@
       <c r="BR186" s="24"/>
       <c r="BS186" s="24"/>
     </row>
-    <row r="187" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A187" s="24" t="s">
         <v>663</v>
       </c>
@@ -37511,7 +37511,7 @@
       <c r="BR187" s="24"/>
       <c r="BS187" s="24"/>
     </row>
-    <row r="188" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A188" s="24" t="s">
         <v>663</v>
       </c>
@@ -37598,7 +37598,7 @@
       <c r="BR188" s="24"/>
       <c r="BS188" s="24"/>
     </row>
-    <row r="189" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A189" s="24" t="s">
         <v>663</v>
       </c>
@@ -37687,7 +37687,7 @@
       <c r="BR189" s="24"/>
       <c r="BS189" s="24"/>
     </row>
-    <row r="190" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A190" s="24" t="s">
         <v>302</v>
       </c>
@@ -37776,7 +37776,7 @@
       <c r="BR190" s="24"/>
       <c r="BS190" s="24"/>
     </row>
-    <row r="191" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A191" s="24" t="s">
         <v>490</v>
       </c>
@@ -37865,7 +37865,7 @@
       <c r="BR191" s="24"/>
       <c r="BS191" s="24"/>
     </row>
-    <row r="192" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A192" s="24" t="s">
         <v>490</v>
       </c>
@@ -37954,7 +37954,7 @@
       <c r="BR192" s="24"/>
       <c r="BS192" s="24"/>
     </row>
-    <row r="193" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A193" s="24" t="s">
         <v>490</v>
       </c>
@@ -38041,7 +38041,7 @@
       <c r="BR193" s="24"/>
       <c r="BS193" s="24"/>
     </row>
-    <row r="194" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A194" s="24" t="s">
         <v>490</v>
       </c>
@@ -38128,7 +38128,7 @@
       <c r="BR194" s="24"/>
       <c r="BS194" s="24"/>
     </row>
-    <row r="195" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A195" s="24" t="s">
         <v>490</v>
       </c>
@@ -38215,7 +38215,7 @@
       <c r="BR195" s="24"/>
       <c r="BS195" s="24"/>
     </row>
-    <row r="196" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A196" s="24" t="s">
         <v>663</v>
       </c>
@@ -38312,7 +38312,7 @@
       </c>
       <c r="BS196" s="24"/>
     </row>
-    <row r="197" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A197" s="24" t="s">
         <v>490</v>
       </c>
@@ -38399,7 +38399,7 @@
       <c r="BR197" s="24"/>
       <c r="BS197" s="24"/>
     </row>
-    <row r="198" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A198" s="24" t="s">
         <v>302</v>
       </c>
@@ -38492,7 +38492,7 @@
       <c r="BR198" s="24"/>
       <c r="BS198" s="24"/>
     </row>
-    <row r="199" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A199" s="24" t="s">
         <v>302</v>
       </c>
@@ -38587,7 +38587,7 @@
       <c r="BR199" s="24"/>
       <c r="BS199" s="24"/>
     </row>
-    <row r="200" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A200" s="24" t="s">
         <v>302</v>
       </c>
@@ -38674,7 +38674,7 @@
       <c r="BR200" s="24"/>
       <c r="BS200" s="24"/>
     </row>
-    <row r="201" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A201" s="24" t="s">
         <v>302</v>
       </c>
@@ -38767,7 +38767,7 @@
       <c r="BR201" s="24"/>
       <c r="BS201" s="24"/>
     </row>
-    <row r="202" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A202" s="24" t="s">
         <v>302</v>
       </c>
@@ -38860,7 +38860,7 @@
       <c r="BR202" s="24"/>
       <c r="BS202" s="24"/>
     </row>
-    <row r="203" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A203" s="24" t="s">
         <v>302</v>
       </c>
@@ -38953,7 +38953,7 @@
       <c r="BR203" s="24"/>
       <c r="BS203" s="24"/>
     </row>
-    <row r="204" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A204" s="24" t="s">
         <v>302</v>
       </c>
@@ -39046,7 +39046,7 @@
       <c r="BR204" s="24"/>
       <c r="BS204" s="24"/>
     </row>
-    <row r="205" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A205" s="24" t="s">
         <v>302</v>
       </c>
@@ -39145,7 +39145,7 @@
       <c r="BR205" s="24"/>
       <c r="BS205" s="24"/>
     </row>
-    <row r="206" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A206" s="24" t="s">
         <v>302</v>
       </c>
@@ -39228,7 +39228,7 @@
       <c r="BR206" s="24"/>
       <c r="BS206" s="24"/>
     </row>
-    <row r="207" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A207" s="24" t="s">
         <v>302</v>
       </c>
@@ -39250,8 +39250,8 @@
       <c r="G207" s="24" t="s">
         <v>1288</v>
       </c>
-      <c r="H207" s="64"/>
-      <c r="I207" s="64"/>
+      <c r="H207" s="65"/>
+      <c r="I207" s="65"/>
       <c r="J207" s="63"/>
       <c r="K207" s="63"/>
       <c r="L207" s="63"/>
@@ -39315,7 +39315,7 @@
       <c r="BR207" s="24"/>
       <c r="BS207" s="24"/>
     </row>
-    <row r="208" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A208" s="24" t="s">
         <v>302</v>
       </c>
@@ -39341,8 +39341,8 @@
       <c r="I208" s="63"/>
       <c r="J208" s="63"/>
       <c r="K208" s="63"/>
-      <c r="L208" s="64"/>
-      <c r="M208" s="64"/>
+      <c r="L208" s="65"/>
+      <c r="M208" s="65"/>
       <c r="N208" s="24"/>
       <c r="O208" s="24"/>
       <c r="P208" s="24"/>
@@ -39402,7 +39402,7 @@
       <c r="BR208" s="24"/>
       <c r="BS208" s="24"/>
     </row>
-    <row r="209" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A209" s="24" t="s">
         <v>302</v>
       </c>
@@ -39489,7 +39489,7 @@
       <c r="BR209" s="24"/>
       <c r="BS209" s="24"/>
     </row>
-    <row r="210" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A210" s="24" t="s">
         <v>302</v>
       </c>
@@ -39576,7 +39576,7 @@
       <c r="BR210" s="24"/>
       <c r="BS210" s="24"/>
     </row>
-    <row r="211" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A211" s="24" t="s">
         <v>302</v>
       </c>
@@ -39665,7 +39665,7 @@
       <c r="BR211" s="24"/>
       <c r="BS211" s="24"/>
     </row>
-    <row r="212" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A212" s="24" t="s">
         <v>302</v>
       </c>
@@ -39754,7 +39754,7 @@
       <c r="BR212" s="24"/>
       <c r="BS212" s="24"/>
     </row>
-    <row r="213" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A213" s="24" t="s">
         <v>302</v>
       </c>
@@ -39843,7 +39843,7 @@
       <c r="BR213" s="24"/>
       <c r="BS213" s="24"/>
     </row>
-    <row r="214" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A214" s="24" t="s">
         <v>302</v>
       </c>
@@ -39936,7 +39936,7 @@
       <c r="BR214" s="24"/>
       <c r="BS214" s="24"/>
     </row>
-    <row r="215" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A215" s="24" t="s">
         <v>302</v>
       </c>
@@ -40019,7 +40019,7 @@
       <c r="BR215" s="24"/>
       <c r="BS215" s="24"/>
     </row>
-    <row r="216" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A216" s="24" t="s">
         <v>302</v>
       </c>
@@ -40114,7 +40114,7 @@
       <c r="BR216" s="24"/>
       <c r="BS216" s="24"/>
     </row>
-    <row r="217" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A217" s="24" t="s">
         <v>302</v>
       </c>
@@ -40205,7 +40205,7 @@
       <c r="BR217" s="24"/>
       <c r="BS217" s="24"/>
     </row>
-    <row r="218" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A218" s="24" t="s">
         <v>302</v>
       </c>
@@ -40300,7 +40300,7 @@
       <c r="BR218" s="24"/>
       <c r="BS218" s="24"/>
     </row>
-    <row r="219" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A219" s="24" t="s">
         <v>302</v>
       </c>
@@ -40393,7 +40393,7 @@
       <c r="BR219" s="24"/>
       <c r="BS219" s="24"/>
     </row>
-    <row r="220" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A220" s="24" t="s">
         <v>302</v>
       </c>
@@ -40476,7 +40476,7 @@
       <c r="BR220" s="24"/>
       <c r="BS220" s="24"/>
     </row>
-    <row r="221" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A221" s="24" t="s">
         <v>302</v>
       </c>
@@ -40569,7 +40569,7 @@
       <c r="BR221" s="24"/>
       <c r="BS221" s="24"/>
     </row>
-    <row r="222" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A222" s="24" t="s">
         <v>302</v>
       </c>
@@ -40666,7 +40666,7 @@
       <c r="BR222" s="24"/>
       <c r="BS222" s="24"/>
     </row>
-    <row r="223" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A223" s="24" t="s">
         <v>302</v>
       </c>
@@ -40757,7 +40757,7 @@
       <c r="BR223" s="24"/>
       <c r="BS223" s="24"/>
     </row>
-    <row r="224" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A224" s="24" t="s">
         <v>302</v>
       </c>
@@ -40846,7 +40846,7 @@
       <c r="BR224" s="24"/>
       <c r="BS224" s="24"/>
     </row>
-    <row r="225" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A225" s="24" t="s">
         <v>302</v>
       </c>
@@ -40937,7 +40937,7 @@
       <c r="BR225" s="24"/>
       <c r="BS225" s="24"/>
     </row>
-    <row r="226" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A226" s="24" t="s">
         <v>302</v>
       </c>
@@ -41026,7 +41026,7 @@
       <c r="BR226" s="24"/>
       <c r="BS226" s="24"/>
     </row>
-    <row r="227" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A227" s="24" t="s">
         <v>302</v>
       </c>
@@ -41119,7 +41119,7 @@
       <c r="BR227" s="24"/>
       <c r="BS227" s="24"/>
     </row>
-    <row r="228" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A228" s="24" t="s">
         <v>302</v>
       </c>
@@ -41208,7 +41208,7 @@
       <c r="BR228" s="24"/>
       <c r="BS228" s="24"/>
     </row>
-    <row r="229" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A229" s="24" t="s">
         <v>302</v>
       </c>
@@ -41291,7 +41291,7 @@
       <c r="BR229" s="24"/>
       <c r="BS229" s="24"/>
     </row>
-    <row r="230" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A230" s="24" t="s">
         <v>302</v>
       </c>
@@ -41374,7 +41374,7 @@
       <c r="BR230" s="24"/>
       <c r="BS230" s="24"/>
     </row>
-    <row r="231" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A231" s="24" t="s">
         <v>302</v>
       </c>
@@ -41467,7 +41467,7 @@
       <c r="BR231" s="24"/>
       <c r="BS231" s="24"/>
     </row>
-    <row r="232" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A232" s="24" t="s">
         <v>302</v>
       </c>
@@ -41554,7 +41554,7 @@
       <c r="BR232" s="24"/>
       <c r="BS232" s="24"/>
     </row>
-    <row r="233" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A233" s="24" t="s">
         <v>302</v>
       </c>
@@ -41643,7 +41643,7 @@
       <c r="BR233" s="24"/>
       <c r="BS233" s="24"/>
     </row>
-    <row r="234" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A234" s="24" t="s">
         <v>302</v>
       </c>
@@ -41736,7 +41736,7 @@
       <c r="BR234" s="24"/>
       <c r="BS234" s="24"/>
     </row>
-    <row r="235" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A235" s="24" t="s">
         <v>302</v>
       </c>
@@ -41831,7 +41831,7 @@
       <c r="BR235" s="24"/>
       <c r="BS235" s="24"/>
     </row>
-    <row r="236" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A236" s="24" t="s">
         <v>302</v>
       </c>
@@ -41926,7 +41926,7 @@
       <c r="BR236" s="24"/>
       <c r="BS236" s="24"/>
     </row>
-    <row r="237" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A237" s="24" t="s">
         <v>302</v>
       </c>
@@ -42015,7 +42015,7 @@
       <c r="BR237" s="24"/>
       <c r="BS237" s="24"/>
     </row>
-    <row r="238" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A238" s="24" t="s">
         <v>302</v>
       </c>
@@ -42110,7 +42110,7 @@
       <c r="BR238" s="24"/>
       <c r="BS238" s="24"/>
     </row>
-    <row r="239" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A239" s="24" t="s">
         <v>302</v>
       </c>
@@ -42203,7 +42203,7 @@
       <c r="BR239" s="24"/>
       <c r="BS239" s="24"/>
     </row>
-    <row r="240" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A240" s="24" t="s">
         <v>302</v>
       </c>
@@ -42296,7 +42296,7 @@
       <c r="BR240" s="24"/>
       <c r="BS240" s="24"/>
     </row>
-    <row r="241" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A241" s="24" t="s">
         <v>302</v>
       </c>
@@ -42391,7 +42391,7 @@
       <c r="BR241" s="24"/>
       <c r="BS241" s="24"/>
     </row>
-    <row r="242" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A242" s="24" t="s">
         <v>302</v>
       </c>
@@ -42488,7 +42488,7 @@
       <c r="BR242" s="24"/>
       <c r="BS242" s="24"/>
     </row>
-    <row r="243" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A243" s="24" t="s">
         <v>302</v>
       </c>
@@ -42581,7 +42581,7 @@
       <c r="BR243" s="24"/>
       <c r="BS243" s="24"/>
     </row>
-    <row r="244" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A244" s="24" t="s">
         <v>302</v>
       </c>
@@ -42674,7 +42674,7 @@
       <c r="BR244" s="24"/>
       <c r="BS244" s="24"/>
     </row>
-    <row r="245" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A245" s="24" t="s">
         <v>302</v>
       </c>
@@ -42761,7 +42761,7 @@
       <c r="BR245" s="24"/>
       <c r="BS245" s="24"/>
     </row>
-    <row r="246" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A246" s="24" t="s">
         <v>302</v>
       </c>
@@ -42854,7 +42854,7 @@
       <c r="BR246" s="24"/>
       <c r="BS246" s="24"/>
     </row>
-    <row r="247" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A247" s="24" t="s">
         <v>302</v>
       </c>
@@ -42949,7 +42949,7 @@
       <c r="BR247" s="24"/>
       <c r="BS247" s="24"/>
     </row>
-    <row r="248" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A248" s="24" t="s">
         <v>302</v>
       </c>
@@ -43038,7 +43038,7 @@
       <c r="BR248" s="24"/>
       <c r="BS248" s="24"/>
     </row>
-    <row r="249" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A249" s="24" t="s">
         <v>302</v>
       </c>
@@ -43131,7 +43131,7 @@
       <c r="BR249" s="24"/>
       <c r="BS249" s="24"/>
     </row>
-    <row r="250" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A250" s="24" t="s">
         <v>302</v>
       </c>
@@ -43218,7 +43218,7 @@
       <c r="BR250" s="24"/>
       <c r="BS250" s="24"/>
     </row>
-    <row r="251" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A251" s="24" t="s">
         <v>302</v>
       </c>
@@ -43311,7 +43311,7 @@
       <c r="BR251" s="24"/>
       <c r="BS251" s="24"/>
     </row>
-    <row r="252" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A252" s="24" t="s">
         <v>302</v>
       </c>
@@ -43398,7 +43398,7 @@
       <c r="BR252" s="24"/>
       <c r="BS252" s="24"/>
     </row>
-    <row r="253" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A253" s="24" t="s">
         <v>302</v>
       </c>
@@ -43481,7 +43481,7 @@
       <c r="BR253" s="24"/>
       <c r="BS253" s="24"/>
     </row>
-    <row r="254" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A254" s="24" t="s">
         <v>302</v>
       </c>
@@ -43572,7 +43572,7 @@
       <c r="BR254" s="24"/>
       <c r="BS254" s="24"/>
     </row>
-    <row r="255" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A255" s="24" t="s">
         <v>302</v>
       </c>
@@ -43661,7 +43661,7 @@
       <c r="BR255" s="24"/>
       <c r="BS255" s="24"/>
     </row>
-    <row r="256" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A256" s="24" t="s">
         <v>302</v>
       </c>
@@ -43752,7 +43752,7 @@
       <c r="BR256" s="24"/>
       <c r="BS256" s="24"/>
     </row>
-    <row r="257" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A257" s="24" t="s">
         <v>302</v>
       </c>
@@ -43845,7 +43845,7 @@
       <c r="BR257" s="24"/>
       <c r="BS257" s="24"/>
     </row>
-    <row r="258" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A258" s="24" t="s">
         <v>302</v>
       </c>
@@ -43940,7 +43940,7 @@
       <c r="BR258" s="24"/>
       <c r="BS258" s="24"/>
     </row>
-    <row r="259" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A259" s="24" t="s">
         <v>302</v>
       </c>
@@ -44029,7 +44029,7 @@
       <c r="BR259" s="24"/>
       <c r="BS259" s="24"/>
     </row>
-    <row r="260" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A260" s="24" t="s">
         <v>302</v>
       </c>
@@ -44120,7 +44120,7 @@
       <c r="BR260" s="24"/>
       <c r="BS260" s="24"/>
     </row>
-    <row r="261" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A261" s="24" t="s">
         <v>302</v>
       </c>
@@ -44203,7 +44203,7 @@
       <c r="BR261" s="24"/>
       <c r="BS261" s="24"/>
     </row>
-    <row r="262" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A262" s="24" t="s">
         <v>302</v>
       </c>
@@ -44292,7 +44292,7 @@
       <c r="BR262" s="24"/>
       <c r="BS262" s="24"/>
     </row>
-    <row r="263" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A263" s="24" t="s">
         <v>302</v>
       </c>
@@ -44389,7 +44389,7 @@
       <c r="BR263" s="24"/>
       <c r="BS263" s="24"/>
     </row>
-    <row r="264" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A264" s="24" t="s">
         <v>302</v>
       </c>
@@ -44480,7 +44480,7 @@
       <c r="BR264" s="24"/>
       <c r="BS264" s="24"/>
     </row>
-    <row r="265" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A265" s="24" t="s">
         <v>302</v>
       </c>
@@ -44571,7 +44571,7 @@
       <c r="BR265" s="24"/>
       <c r="BS265" s="24"/>
     </row>
-    <row r="266" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A266" s="24" t="s">
         <v>302</v>
       </c>
@@ -44654,7 +44654,7 @@
       <c r="BR266" s="24"/>
       <c r="BS266" s="24"/>
     </row>
-    <row r="267" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A267" s="24" t="s">
         <v>490</v>
       </c>
@@ -44741,7 +44741,7 @@
       <c r="BR267" s="24"/>
       <c r="BS267" s="24"/>
     </row>
-    <row r="268" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A268" s="24" t="s">
         <v>490</v>
       </c>
@@ -44828,7 +44828,7 @@
       <c r="BR268" s="24"/>
       <c r="BS268" s="24"/>
     </row>
-    <row r="269" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A269" s="24" t="s">
         <v>663</v>
       </c>
@@ -44917,7 +44917,7 @@
       <c r="BR269" s="24"/>
       <c r="BS269" s="24"/>
     </row>
-    <row r="270" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A270" s="24" t="s">
         <v>663</v>
       </c>
@@ -45006,7 +45006,7 @@
       <c r="BR270" s="24"/>
       <c r="BS270" s="24"/>
     </row>
-    <row r="271" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A271" s="24" t="s">
         <v>663</v>
       </c>
@@ -45095,7 +45095,7 @@
       <c r="BR271" s="24"/>
       <c r="BS271" s="24"/>
     </row>
-    <row r="272" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A272" s="24" t="s">
         <v>663</v>
       </c>
@@ -45184,7 +45184,7 @@
       <c r="BR272" s="24"/>
       <c r="BS272" s="24"/>
     </row>
-    <row r="273" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A273" s="24" t="s">
         <v>663</v>
       </c>
@@ -45273,7 +45273,7 @@
       <c r="BR273" s="24"/>
       <c r="BS273" s="24"/>
     </row>
-    <row r="274" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A274" s="24" t="s">
         <v>490</v>
       </c>
@@ -45362,7 +45362,7 @@
       <c r="BR274" s="24"/>
       <c r="BS274" s="24"/>
     </row>
-    <row r="275" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A275" s="24" t="s">
         <v>490</v>
       </c>
@@ -45451,7 +45451,7 @@
       <c r="BR275" s="24"/>
       <c r="BS275" s="24"/>
     </row>
-    <row r="276" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A276" s="24" t="s">
         <v>302</v>
       </c>
@@ -45544,7 +45544,7 @@
       <c r="BR276" s="24"/>
       <c r="BS276" s="24"/>
     </row>
-    <row r="277" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A277" s="24" t="s">
         <v>302</v>
       </c>
@@ -45637,7 +45637,7 @@
       <c r="BR277" s="24"/>
       <c r="BS277" s="29"/>
     </row>
-    <row r="278" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A278" s="24" t="s">
         <v>302</v>
       </c>
@@ -45728,7 +45728,7 @@
       <c r="BR278" s="24"/>
       <c r="BS278" s="24"/>
     </row>
-    <row r="279" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A279" s="24" t="s">
         <v>663</v>
       </c>
@@ -45829,7 +45829,7 @@
       </c>
       <c r="BS279" s="24"/>
     </row>
-    <row r="280" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A280" s="24" t="s">
         <v>325</v>
       </c>
@@ -45916,7 +45916,7 @@
       <c r="BR280" s="24"/>
       <c r="BS280" s="24"/>
     </row>
-    <row r="281" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A281" s="24" t="s">
         <v>302</v>
       </c>
@@ -46009,7 +46009,7 @@
       <c r="BR281" s="24"/>
       <c r="BS281" s="24"/>
     </row>
-    <row r="282" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A282" s="24" t="s">
         <v>302</v>
       </c>
@@ -46102,7 +46102,7 @@
       <c r="BR282" s="24"/>
       <c r="BS282" s="24"/>
     </row>
-    <row r="283" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A283" s="24" t="s">
         <v>490</v>
       </c>
@@ -46205,7 +46205,7 @@
       </c>
       <c r="BS283" s="24"/>
     </row>
-    <row r="284" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A284" s="24" t="s">
         <v>302</v>
       </c>
@@ -46314,108 +46314,467 @@
     </row>
   </sheetData>
   <mergeCells count="579">
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="AB2:AC2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="AC8:AD8"/>
-    <mergeCell ref="AB9:AC9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="AB10:AC10"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="AC6:AD6"/>
-    <mergeCell ref="AB15:AC15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="AB16:AC16"/>
-    <mergeCell ref="AC17:AD17"/>
-    <mergeCell ref="AC18:AD18"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="AC11:AD11"/>
-    <mergeCell ref="AB12:AC12"/>
-    <mergeCell ref="AB13:AC13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="AB14:AC14"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="AB24:AC24"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="AB25:AC25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="AB26:AC26"/>
-    <mergeCell ref="AC19:AD19"/>
-    <mergeCell ref="AC20:AD20"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="AB21:AC21"/>
-    <mergeCell ref="AB22:AC22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="AB23:AC23"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="AB29:AC29"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="AB30:AC30"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="AB27:AC27"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="AB28:AC28"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="AB33:AC33"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="AB34:AC34"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="AB31:AC31"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="AB32:AC32"/>
-    <mergeCell ref="AC38:AD38"/>
-    <mergeCell ref="AC39:AD39"/>
-    <mergeCell ref="AC40:AD40"/>
-    <mergeCell ref="AC41:AD41"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="AB42:AC42"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="AB35:AC35"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="AB36:AC36"/>
-    <mergeCell ref="AC37:AD37"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="AB47:AC47"/>
-    <mergeCell ref="AC48:AD48"/>
-    <mergeCell ref="AB49:AC49"/>
-    <mergeCell ref="AC50:AD50"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="AB44:AC44"/>
-    <mergeCell ref="AB45:AC45"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="AB46:AC46"/>
+    <mergeCell ref="H284:I284"/>
+    <mergeCell ref="J284:K284"/>
+    <mergeCell ref="L284:M284"/>
+    <mergeCell ref="AC284:AD284"/>
+    <mergeCell ref="H282:I282"/>
+    <mergeCell ref="J282:K282"/>
+    <mergeCell ref="AB282:AC282"/>
+    <mergeCell ref="H283:I283"/>
+    <mergeCell ref="J283:K283"/>
+    <mergeCell ref="L283:M283"/>
+    <mergeCell ref="AB283:AC283"/>
+    <mergeCell ref="H280:I280"/>
+    <mergeCell ref="J280:K280"/>
+    <mergeCell ref="L280:M280"/>
+    <mergeCell ref="AB280:AC280"/>
+    <mergeCell ref="H281:I281"/>
+    <mergeCell ref="J281:K281"/>
+    <mergeCell ref="AB281:AC281"/>
+    <mergeCell ref="H278:I278"/>
+    <mergeCell ref="J278:K278"/>
+    <mergeCell ref="AB278:AC278"/>
+    <mergeCell ref="I279:J279"/>
+    <mergeCell ref="K279:L279"/>
+    <mergeCell ref="AB279:AC279"/>
+    <mergeCell ref="AB275:AC275"/>
+    <mergeCell ref="H276:I276"/>
+    <mergeCell ref="J276:K276"/>
+    <mergeCell ref="AB276:AC276"/>
+    <mergeCell ref="H277:I277"/>
+    <mergeCell ref="J277:K277"/>
+    <mergeCell ref="AB277:AC277"/>
+    <mergeCell ref="AB269:AC269"/>
+    <mergeCell ref="AB270:AC270"/>
+    <mergeCell ref="AB271:AC271"/>
+    <mergeCell ref="AB272:AC272"/>
+    <mergeCell ref="AB273:AC273"/>
+    <mergeCell ref="AB274:AC274"/>
+    <mergeCell ref="H266:I266"/>
+    <mergeCell ref="J266:K266"/>
+    <mergeCell ref="L266:M266"/>
+    <mergeCell ref="AB266:AC266"/>
+    <mergeCell ref="AB267:AC267"/>
+    <mergeCell ref="AB268:AC268"/>
+    <mergeCell ref="H264:I264"/>
+    <mergeCell ref="J264:K264"/>
+    <mergeCell ref="AB264:AC264"/>
+    <mergeCell ref="H265:I265"/>
+    <mergeCell ref="J265:K265"/>
+    <mergeCell ref="AB265:AC265"/>
+    <mergeCell ref="H262:I262"/>
+    <mergeCell ref="J262:K262"/>
+    <mergeCell ref="AB262:AC262"/>
+    <mergeCell ref="H263:I263"/>
+    <mergeCell ref="J263:K263"/>
+    <mergeCell ref="AB263:AC263"/>
+    <mergeCell ref="H260:I260"/>
+    <mergeCell ref="J260:K260"/>
+    <mergeCell ref="AB260:AC260"/>
+    <mergeCell ref="H261:I261"/>
+    <mergeCell ref="J261:K261"/>
+    <mergeCell ref="L261:M261"/>
+    <mergeCell ref="AB261:AC261"/>
+    <mergeCell ref="H258:I258"/>
+    <mergeCell ref="J258:K258"/>
+    <mergeCell ref="AB258:AC258"/>
+    <mergeCell ref="H259:I259"/>
+    <mergeCell ref="J259:K259"/>
+    <mergeCell ref="AB259:AC259"/>
+    <mergeCell ref="H256:I256"/>
+    <mergeCell ref="J256:K256"/>
+    <mergeCell ref="AB256:AC256"/>
+    <mergeCell ref="H257:I257"/>
+    <mergeCell ref="J257:K257"/>
+    <mergeCell ref="AB257:AC257"/>
+    <mergeCell ref="H254:I254"/>
+    <mergeCell ref="J254:K254"/>
+    <mergeCell ref="AB254:AC254"/>
+    <mergeCell ref="H255:I255"/>
+    <mergeCell ref="J255:K255"/>
+    <mergeCell ref="AB255:AC255"/>
+    <mergeCell ref="H252:I252"/>
+    <mergeCell ref="J252:K252"/>
+    <mergeCell ref="L252:M252"/>
+    <mergeCell ref="AB252:AC252"/>
+    <mergeCell ref="H253:I253"/>
+    <mergeCell ref="J253:K253"/>
+    <mergeCell ref="L253:M253"/>
+    <mergeCell ref="AB253:AC253"/>
+    <mergeCell ref="H250:I250"/>
+    <mergeCell ref="J250:K250"/>
+    <mergeCell ref="L250:M250"/>
+    <mergeCell ref="AB250:AC250"/>
+    <mergeCell ref="H251:I251"/>
+    <mergeCell ref="J251:K251"/>
+    <mergeCell ref="AB251:AC251"/>
+    <mergeCell ref="H248:I248"/>
+    <mergeCell ref="J248:K248"/>
+    <mergeCell ref="L248:M248"/>
+    <mergeCell ref="AB248:AC248"/>
+    <mergeCell ref="H249:I249"/>
+    <mergeCell ref="J249:K249"/>
+    <mergeCell ref="AB249:AC249"/>
+    <mergeCell ref="H246:I246"/>
+    <mergeCell ref="J246:K246"/>
+    <mergeCell ref="AB246:AC246"/>
+    <mergeCell ref="H247:I247"/>
+    <mergeCell ref="J247:K247"/>
+    <mergeCell ref="AB247:AC247"/>
+    <mergeCell ref="H244:I244"/>
+    <mergeCell ref="J244:K244"/>
+    <mergeCell ref="AB244:AC244"/>
+    <mergeCell ref="H245:I245"/>
+    <mergeCell ref="J245:K245"/>
+    <mergeCell ref="L245:M245"/>
+    <mergeCell ref="AB245:AC245"/>
+    <mergeCell ref="H242:I242"/>
+    <mergeCell ref="J242:K242"/>
+    <mergeCell ref="AB242:AC242"/>
+    <mergeCell ref="H243:I243"/>
+    <mergeCell ref="J243:K243"/>
+    <mergeCell ref="AB243:AC243"/>
+    <mergeCell ref="H240:I240"/>
+    <mergeCell ref="J240:K240"/>
+    <mergeCell ref="AB240:AC240"/>
+    <mergeCell ref="H241:I241"/>
+    <mergeCell ref="J241:K241"/>
+    <mergeCell ref="AB241:AC241"/>
+    <mergeCell ref="H238:I238"/>
+    <mergeCell ref="J238:K238"/>
+    <mergeCell ref="AB238:AC238"/>
+    <mergeCell ref="H239:I239"/>
+    <mergeCell ref="J239:K239"/>
+    <mergeCell ref="AB239:AC239"/>
+    <mergeCell ref="H236:I236"/>
+    <mergeCell ref="J236:K236"/>
+    <mergeCell ref="AB236:AC236"/>
+    <mergeCell ref="H237:I237"/>
+    <mergeCell ref="J237:K237"/>
+    <mergeCell ref="L237:M237"/>
+    <mergeCell ref="AB237:AC237"/>
+    <mergeCell ref="H234:I234"/>
+    <mergeCell ref="J234:K234"/>
+    <mergeCell ref="AB234:AC234"/>
+    <mergeCell ref="H235:I235"/>
+    <mergeCell ref="J235:K235"/>
+    <mergeCell ref="AB235:AC235"/>
+    <mergeCell ref="H232:I232"/>
+    <mergeCell ref="J232:K232"/>
+    <mergeCell ref="L232:M232"/>
+    <mergeCell ref="AB232:AC232"/>
+    <mergeCell ref="H233:I233"/>
+    <mergeCell ref="J233:K233"/>
+    <mergeCell ref="L233:M233"/>
+    <mergeCell ref="AB233:AC233"/>
+    <mergeCell ref="H230:I230"/>
+    <mergeCell ref="J230:K230"/>
+    <mergeCell ref="L230:M230"/>
+    <mergeCell ref="AB230:AC230"/>
+    <mergeCell ref="H231:I231"/>
+    <mergeCell ref="J231:K231"/>
+    <mergeCell ref="AB231:AC231"/>
+    <mergeCell ref="H228:I228"/>
+    <mergeCell ref="J228:K228"/>
+    <mergeCell ref="AB228:AC228"/>
+    <mergeCell ref="H229:I229"/>
+    <mergeCell ref="J229:K229"/>
+    <mergeCell ref="L229:M229"/>
+    <mergeCell ref="AB229:AC229"/>
+    <mergeCell ref="H226:I226"/>
+    <mergeCell ref="J226:K226"/>
+    <mergeCell ref="AB226:AC226"/>
+    <mergeCell ref="H227:I227"/>
+    <mergeCell ref="J227:K227"/>
+    <mergeCell ref="AB227:AC227"/>
+    <mergeCell ref="H224:I224"/>
+    <mergeCell ref="J224:K224"/>
+    <mergeCell ref="AB224:AC224"/>
+    <mergeCell ref="H225:I225"/>
+    <mergeCell ref="J225:K225"/>
+    <mergeCell ref="AB225:AC225"/>
+    <mergeCell ref="H222:I222"/>
+    <mergeCell ref="J222:K222"/>
+    <mergeCell ref="AB222:AC222"/>
+    <mergeCell ref="H223:I223"/>
+    <mergeCell ref="J223:K223"/>
+    <mergeCell ref="AB223:AC223"/>
+    <mergeCell ref="H220:I220"/>
+    <mergeCell ref="J220:K220"/>
+    <mergeCell ref="L220:M220"/>
+    <mergeCell ref="AB220:AC220"/>
+    <mergeCell ref="H221:I221"/>
+    <mergeCell ref="J221:K221"/>
+    <mergeCell ref="AB221:AC221"/>
+    <mergeCell ref="H218:I218"/>
+    <mergeCell ref="J218:K218"/>
+    <mergeCell ref="AB218:AC218"/>
+    <mergeCell ref="H219:I219"/>
+    <mergeCell ref="J219:K219"/>
+    <mergeCell ref="AB219:AC219"/>
+    <mergeCell ref="H216:I216"/>
+    <mergeCell ref="J216:K216"/>
+    <mergeCell ref="AB216:AC216"/>
+    <mergeCell ref="H217:I217"/>
+    <mergeCell ref="J217:K217"/>
+    <mergeCell ref="AB217:AC217"/>
+    <mergeCell ref="H214:I214"/>
+    <mergeCell ref="J214:K214"/>
+    <mergeCell ref="AB214:AC214"/>
+    <mergeCell ref="H215:I215"/>
+    <mergeCell ref="J215:K215"/>
+    <mergeCell ref="L215:M215"/>
+    <mergeCell ref="AB215:AC215"/>
+    <mergeCell ref="H212:I212"/>
+    <mergeCell ref="J212:K212"/>
+    <mergeCell ref="L212:M212"/>
+    <mergeCell ref="AB212:AC212"/>
+    <mergeCell ref="H213:I213"/>
+    <mergeCell ref="J213:K213"/>
+    <mergeCell ref="L213:M213"/>
+    <mergeCell ref="AB213:AC213"/>
+    <mergeCell ref="H210:I210"/>
+    <mergeCell ref="J210:K210"/>
+    <mergeCell ref="L210:M210"/>
+    <mergeCell ref="AB210:AC210"/>
+    <mergeCell ref="H211:I211"/>
+    <mergeCell ref="J211:K211"/>
+    <mergeCell ref="L211:M211"/>
+    <mergeCell ref="AB211:AC211"/>
+    <mergeCell ref="H208:I208"/>
+    <mergeCell ref="J208:K208"/>
+    <mergeCell ref="L208:M208"/>
+    <mergeCell ref="AB208:AC208"/>
+    <mergeCell ref="H209:I209"/>
+    <mergeCell ref="J209:K209"/>
+    <mergeCell ref="L209:M209"/>
+    <mergeCell ref="AB209:AC209"/>
+    <mergeCell ref="H206:I206"/>
+    <mergeCell ref="J206:K206"/>
+    <mergeCell ref="L206:M206"/>
+    <mergeCell ref="AB206:AC206"/>
+    <mergeCell ref="H207:I207"/>
+    <mergeCell ref="J207:K207"/>
+    <mergeCell ref="L207:M207"/>
+    <mergeCell ref="AB207:AC207"/>
+    <mergeCell ref="H204:I204"/>
+    <mergeCell ref="J204:K204"/>
+    <mergeCell ref="AB204:AC204"/>
+    <mergeCell ref="H205:I205"/>
+    <mergeCell ref="J205:K205"/>
+    <mergeCell ref="AB205:AC205"/>
+    <mergeCell ref="H202:I202"/>
+    <mergeCell ref="J202:K202"/>
+    <mergeCell ref="AB202:AC202"/>
+    <mergeCell ref="H203:I203"/>
+    <mergeCell ref="J203:K203"/>
+    <mergeCell ref="AB203:AC203"/>
+    <mergeCell ref="H200:I200"/>
+    <mergeCell ref="J200:K200"/>
+    <mergeCell ref="AB200:AC200"/>
+    <mergeCell ref="H201:I201"/>
+    <mergeCell ref="J201:K201"/>
+    <mergeCell ref="AB201:AC201"/>
+    <mergeCell ref="AB197:AC197"/>
+    <mergeCell ref="H198:I198"/>
+    <mergeCell ref="J198:K198"/>
+    <mergeCell ref="AB198:AC198"/>
+    <mergeCell ref="H199:I199"/>
+    <mergeCell ref="J199:K199"/>
+    <mergeCell ref="AB199:AC199"/>
+    <mergeCell ref="AB191:AC191"/>
+    <mergeCell ref="AB192:AC192"/>
+    <mergeCell ref="AB193:AC193"/>
+    <mergeCell ref="AB194:AC194"/>
+    <mergeCell ref="AB195:AC195"/>
+    <mergeCell ref="AB196:AC196"/>
+    <mergeCell ref="AB186:AC186"/>
+    <mergeCell ref="AB187:AC187"/>
+    <mergeCell ref="AB188:AC188"/>
+    <mergeCell ref="AB189:AC189"/>
+    <mergeCell ref="H190:I190"/>
+    <mergeCell ref="J190:K190"/>
+    <mergeCell ref="AB190:AC190"/>
+    <mergeCell ref="H184:I184"/>
+    <mergeCell ref="J184:K184"/>
+    <mergeCell ref="AB184:AC184"/>
+    <mergeCell ref="H185:I185"/>
+    <mergeCell ref="J185:K185"/>
+    <mergeCell ref="AB185:AC185"/>
+    <mergeCell ref="AB178:AC178"/>
+    <mergeCell ref="AB179:AC179"/>
+    <mergeCell ref="AB180:AC180"/>
+    <mergeCell ref="AB181:AC181"/>
+    <mergeCell ref="AB182:AC182"/>
+    <mergeCell ref="AB183:AC183"/>
+    <mergeCell ref="AB172:AC172"/>
+    <mergeCell ref="AB173:AC173"/>
+    <mergeCell ref="AB174:AC174"/>
+    <mergeCell ref="AB175:AC175"/>
+    <mergeCell ref="AB176:AC176"/>
+    <mergeCell ref="AB177:AC177"/>
+    <mergeCell ref="AB166:AC166"/>
+    <mergeCell ref="AB167:AC167"/>
+    <mergeCell ref="AB168:AC168"/>
+    <mergeCell ref="AB169:AC169"/>
+    <mergeCell ref="AB170:AC170"/>
+    <mergeCell ref="AB171:AC171"/>
+    <mergeCell ref="AB160:AC160"/>
+    <mergeCell ref="AB161:AC161"/>
+    <mergeCell ref="AB162:AC162"/>
+    <mergeCell ref="AB163:AC163"/>
+    <mergeCell ref="AB164:AC164"/>
+    <mergeCell ref="AB165:AC165"/>
+    <mergeCell ref="AB154:AC154"/>
+    <mergeCell ref="AB155:AC155"/>
+    <mergeCell ref="AB156:AC156"/>
+    <mergeCell ref="AB157:AC157"/>
+    <mergeCell ref="AB158:AC158"/>
+    <mergeCell ref="AB159:AC159"/>
+    <mergeCell ref="AB148:AC148"/>
+    <mergeCell ref="AB149:AC149"/>
+    <mergeCell ref="AB150:AC150"/>
+    <mergeCell ref="AB151:AC151"/>
+    <mergeCell ref="AB152:AC152"/>
+    <mergeCell ref="AB153:AC153"/>
+    <mergeCell ref="AB142:AC142"/>
+    <mergeCell ref="AB143:AC143"/>
+    <mergeCell ref="AB144:AC144"/>
+    <mergeCell ref="AB145:AC145"/>
+    <mergeCell ref="AB146:AC146"/>
+    <mergeCell ref="AB147:AC147"/>
+    <mergeCell ref="AB137:AC137"/>
+    <mergeCell ref="AB138:AC138"/>
+    <mergeCell ref="AB139:AC139"/>
+    <mergeCell ref="AB140:AC140"/>
+    <mergeCell ref="H141:I141"/>
+    <mergeCell ref="J141:K141"/>
+    <mergeCell ref="L141:M141"/>
+    <mergeCell ref="AB141:AC141"/>
+    <mergeCell ref="AB131:AC131"/>
+    <mergeCell ref="AB132:AC132"/>
+    <mergeCell ref="AB133:AC133"/>
+    <mergeCell ref="AB134:AC134"/>
+    <mergeCell ref="AB135:AC135"/>
+    <mergeCell ref="AC136:AD136"/>
+    <mergeCell ref="AC127:AD127"/>
+    <mergeCell ref="AC128:AD128"/>
+    <mergeCell ref="AB129:AC129"/>
+    <mergeCell ref="H130:I130"/>
+    <mergeCell ref="J130:K130"/>
+    <mergeCell ref="AB130:AC130"/>
+    <mergeCell ref="H125:I125"/>
+    <mergeCell ref="J125:K125"/>
+    <mergeCell ref="AB125:AC125"/>
+    <mergeCell ref="H126:I126"/>
+    <mergeCell ref="J126:K126"/>
+    <mergeCell ref="AB126:AC126"/>
+    <mergeCell ref="AC121:AD121"/>
+    <mergeCell ref="I122:J122"/>
+    <mergeCell ref="K122:L122"/>
+    <mergeCell ref="AB122:AC122"/>
+    <mergeCell ref="AB123:AC123"/>
+    <mergeCell ref="H124:I124"/>
+    <mergeCell ref="J124:K124"/>
+    <mergeCell ref="L124:M124"/>
+    <mergeCell ref="AB124:AC124"/>
+    <mergeCell ref="L117:M117"/>
+    <mergeCell ref="AB117:AC117"/>
+    <mergeCell ref="AB118:AC118"/>
+    <mergeCell ref="AB119:AC119"/>
+    <mergeCell ref="H120:I120"/>
+    <mergeCell ref="J120:K120"/>
+    <mergeCell ref="AC120:AD120"/>
+    <mergeCell ref="AB112:AC112"/>
+    <mergeCell ref="AB113:AC113"/>
+    <mergeCell ref="H114:I114"/>
+    <mergeCell ref="AC114:AD114"/>
+    <mergeCell ref="H116:I116"/>
+    <mergeCell ref="AC116:AD116"/>
+    <mergeCell ref="AB108:AC108"/>
+    <mergeCell ref="H109:I109"/>
+    <mergeCell ref="AB109:AC109"/>
+    <mergeCell ref="AB110:AC110"/>
+    <mergeCell ref="H111:I111"/>
+    <mergeCell ref="J111:K111"/>
+    <mergeCell ref="AC111:AD111"/>
+    <mergeCell ref="H106:I106"/>
+    <mergeCell ref="J106:K106"/>
+    <mergeCell ref="AB106:AC106"/>
+    <mergeCell ref="H107:I107"/>
+    <mergeCell ref="J107:K107"/>
+    <mergeCell ref="AB107:AC107"/>
+    <mergeCell ref="H103:I103"/>
+    <mergeCell ref="AC103:AD103"/>
+    <mergeCell ref="H104:I104"/>
+    <mergeCell ref="J104:K104"/>
+    <mergeCell ref="AB104:AC104"/>
+    <mergeCell ref="H105:I105"/>
+    <mergeCell ref="J105:K105"/>
+    <mergeCell ref="AB105:AC105"/>
+    <mergeCell ref="H100:I100"/>
+    <mergeCell ref="J100:K100"/>
+    <mergeCell ref="AC100:AD100"/>
+    <mergeCell ref="H101:I101"/>
+    <mergeCell ref="AB101:AC101"/>
+    <mergeCell ref="H102:I102"/>
+    <mergeCell ref="J102:K102"/>
+    <mergeCell ref="AB102:AC102"/>
+    <mergeCell ref="H97:I97"/>
+    <mergeCell ref="AB97:AC97"/>
+    <mergeCell ref="H98:I98"/>
+    <mergeCell ref="J98:K98"/>
+    <mergeCell ref="AB98:AC98"/>
+    <mergeCell ref="AB99:AC99"/>
+    <mergeCell ref="H93:I93"/>
+    <mergeCell ref="J93:K93"/>
+    <mergeCell ref="AB93:AC93"/>
+    <mergeCell ref="AB94:AC94"/>
+    <mergeCell ref="AB95:AC95"/>
+    <mergeCell ref="H96:I96"/>
+    <mergeCell ref="AB96:AC96"/>
+    <mergeCell ref="H90:I90"/>
+    <mergeCell ref="AC90:AD90"/>
+    <mergeCell ref="H91:I91"/>
+    <mergeCell ref="AC91:AD91"/>
+    <mergeCell ref="H92:I92"/>
+    <mergeCell ref="AC92:AD92"/>
+    <mergeCell ref="AB86:AC86"/>
+    <mergeCell ref="AB87:AC87"/>
+    <mergeCell ref="H88:I88"/>
+    <mergeCell ref="J88:K88"/>
+    <mergeCell ref="AB88:AC88"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="AC89:AD89"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="J83:K83"/>
+    <mergeCell ref="AC83:AD83"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="AB84:AC84"/>
+    <mergeCell ref="H85:I85"/>
+    <mergeCell ref="J85:K85"/>
+    <mergeCell ref="AC85:AD85"/>
+    <mergeCell ref="AC78:AD78"/>
+    <mergeCell ref="AB79:AC79"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="J80:K80"/>
+    <mergeCell ref="AB80:AC80"/>
+    <mergeCell ref="AC82:AD82"/>
+    <mergeCell ref="AB70:AC70"/>
+    <mergeCell ref="AB71:AC71"/>
+    <mergeCell ref="AB72:AC72"/>
+    <mergeCell ref="AB73:AC73"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="AB75:AC75"/>
+    <mergeCell ref="AC59:AD59"/>
+    <mergeCell ref="AC60:AD60"/>
+    <mergeCell ref="AB62:AC62"/>
+    <mergeCell ref="AC64:AD64"/>
+    <mergeCell ref="AC65:AD65"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="AB66:AC66"/>
     <mergeCell ref="H56:I56"/>
     <mergeCell ref="J56:K56"/>
     <mergeCell ref="AC56:AD56"/>
@@ -46432,467 +46791,108 @@
     <mergeCell ref="H55:I55"/>
     <mergeCell ref="J55:K55"/>
     <mergeCell ref="AC55:AD55"/>
-    <mergeCell ref="AB70:AC70"/>
-    <mergeCell ref="AB71:AC71"/>
-    <mergeCell ref="AB72:AC72"/>
-    <mergeCell ref="AB73:AC73"/>
-    <mergeCell ref="H75:I75"/>
-    <mergeCell ref="AB75:AC75"/>
-    <mergeCell ref="AC59:AD59"/>
-    <mergeCell ref="AC60:AD60"/>
-    <mergeCell ref="AB62:AC62"/>
-    <mergeCell ref="AC64:AD64"/>
-    <mergeCell ref="AC65:AD65"/>
-    <mergeCell ref="H66:I66"/>
-    <mergeCell ref="J66:K66"/>
-    <mergeCell ref="AB66:AC66"/>
-    <mergeCell ref="H83:I83"/>
-    <mergeCell ref="J83:K83"/>
-    <mergeCell ref="AC83:AD83"/>
-    <mergeCell ref="H84:I84"/>
-    <mergeCell ref="AB84:AC84"/>
-    <mergeCell ref="H85:I85"/>
-    <mergeCell ref="J85:K85"/>
-    <mergeCell ref="AC85:AD85"/>
-    <mergeCell ref="AC78:AD78"/>
-    <mergeCell ref="AB79:AC79"/>
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="J80:K80"/>
-    <mergeCell ref="AB80:AC80"/>
-    <mergeCell ref="AC82:AD82"/>
-    <mergeCell ref="H90:I90"/>
-    <mergeCell ref="AC90:AD90"/>
-    <mergeCell ref="H91:I91"/>
-    <mergeCell ref="AC91:AD91"/>
-    <mergeCell ref="H92:I92"/>
-    <mergeCell ref="AC92:AD92"/>
-    <mergeCell ref="AB86:AC86"/>
-    <mergeCell ref="AB87:AC87"/>
-    <mergeCell ref="H88:I88"/>
-    <mergeCell ref="J88:K88"/>
-    <mergeCell ref="AB88:AC88"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="AC89:AD89"/>
-    <mergeCell ref="H97:I97"/>
-    <mergeCell ref="AB97:AC97"/>
-    <mergeCell ref="H98:I98"/>
-    <mergeCell ref="J98:K98"/>
-    <mergeCell ref="AB98:AC98"/>
-    <mergeCell ref="AB99:AC99"/>
-    <mergeCell ref="H93:I93"/>
-    <mergeCell ref="J93:K93"/>
-    <mergeCell ref="AB93:AC93"/>
-    <mergeCell ref="AB94:AC94"/>
-    <mergeCell ref="AB95:AC95"/>
-    <mergeCell ref="H96:I96"/>
-    <mergeCell ref="AB96:AC96"/>
-    <mergeCell ref="H103:I103"/>
-    <mergeCell ref="AC103:AD103"/>
-    <mergeCell ref="H104:I104"/>
-    <mergeCell ref="J104:K104"/>
-    <mergeCell ref="AB104:AC104"/>
-    <mergeCell ref="H105:I105"/>
-    <mergeCell ref="J105:K105"/>
-    <mergeCell ref="AB105:AC105"/>
-    <mergeCell ref="H100:I100"/>
-    <mergeCell ref="J100:K100"/>
-    <mergeCell ref="AC100:AD100"/>
-    <mergeCell ref="H101:I101"/>
-    <mergeCell ref="AB101:AC101"/>
-    <mergeCell ref="H102:I102"/>
-    <mergeCell ref="J102:K102"/>
-    <mergeCell ref="AB102:AC102"/>
-    <mergeCell ref="AB108:AC108"/>
-    <mergeCell ref="H109:I109"/>
-    <mergeCell ref="AB109:AC109"/>
-    <mergeCell ref="AB110:AC110"/>
-    <mergeCell ref="H111:I111"/>
-    <mergeCell ref="J111:K111"/>
-    <mergeCell ref="AC111:AD111"/>
-    <mergeCell ref="H106:I106"/>
-    <mergeCell ref="J106:K106"/>
-    <mergeCell ref="AB106:AC106"/>
-    <mergeCell ref="H107:I107"/>
-    <mergeCell ref="J107:K107"/>
-    <mergeCell ref="AB107:AC107"/>
-    <mergeCell ref="L117:M117"/>
-    <mergeCell ref="AB117:AC117"/>
-    <mergeCell ref="AB118:AC118"/>
-    <mergeCell ref="AB119:AC119"/>
-    <mergeCell ref="H120:I120"/>
-    <mergeCell ref="J120:K120"/>
-    <mergeCell ref="AC120:AD120"/>
-    <mergeCell ref="AB112:AC112"/>
-    <mergeCell ref="AB113:AC113"/>
-    <mergeCell ref="H114:I114"/>
-    <mergeCell ref="AC114:AD114"/>
-    <mergeCell ref="H116:I116"/>
-    <mergeCell ref="AC116:AD116"/>
-    <mergeCell ref="AC121:AD121"/>
-    <mergeCell ref="I122:J122"/>
-    <mergeCell ref="K122:L122"/>
-    <mergeCell ref="AB122:AC122"/>
-    <mergeCell ref="AB123:AC123"/>
-    <mergeCell ref="H124:I124"/>
-    <mergeCell ref="J124:K124"/>
-    <mergeCell ref="L124:M124"/>
-    <mergeCell ref="AB124:AC124"/>
-    <mergeCell ref="AC127:AD127"/>
-    <mergeCell ref="AC128:AD128"/>
-    <mergeCell ref="AB129:AC129"/>
-    <mergeCell ref="H130:I130"/>
-    <mergeCell ref="J130:K130"/>
-    <mergeCell ref="AB130:AC130"/>
-    <mergeCell ref="H125:I125"/>
-    <mergeCell ref="J125:K125"/>
-    <mergeCell ref="AB125:AC125"/>
-    <mergeCell ref="H126:I126"/>
-    <mergeCell ref="J126:K126"/>
-    <mergeCell ref="AB126:AC126"/>
-    <mergeCell ref="H141:I141"/>
-    <mergeCell ref="J141:K141"/>
-    <mergeCell ref="L141:M141"/>
-    <mergeCell ref="AB141:AC141"/>
-    <mergeCell ref="AB131:AC131"/>
-    <mergeCell ref="AB132:AC132"/>
-    <mergeCell ref="AB133:AC133"/>
-    <mergeCell ref="AB134:AC134"/>
-    <mergeCell ref="AB135:AC135"/>
-    <mergeCell ref="AC136:AD136"/>
-    <mergeCell ref="AB142:AC142"/>
-    <mergeCell ref="AB143:AC143"/>
-    <mergeCell ref="AB144:AC144"/>
-    <mergeCell ref="AB145:AC145"/>
-    <mergeCell ref="AB146:AC146"/>
-    <mergeCell ref="AB147:AC147"/>
-    <mergeCell ref="AB137:AC137"/>
-    <mergeCell ref="AB138:AC138"/>
-    <mergeCell ref="AB139:AC139"/>
-    <mergeCell ref="AB140:AC140"/>
-    <mergeCell ref="AB154:AC154"/>
-    <mergeCell ref="AB155:AC155"/>
-    <mergeCell ref="AB156:AC156"/>
-    <mergeCell ref="AB157:AC157"/>
-    <mergeCell ref="AB158:AC158"/>
-    <mergeCell ref="AB159:AC159"/>
-    <mergeCell ref="AB148:AC148"/>
-    <mergeCell ref="AB149:AC149"/>
-    <mergeCell ref="AB150:AC150"/>
-    <mergeCell ref="AB151:AC151"/>
-    <mergeCell ref="AB152:AC152"/>
-    <mergeCell ref="AB153:AC153"/>
-    <mergeCell ref="AB166:AC166"/>
-    <mergeCell ref="AB167:AC167"/>
-    <mergeCell ref="AB168:AC168"/>
-    <mergeCell ref="AB169:AC169"/>
-    <mergeCell ref="AB170:AC170"/>
-    <mergeCell ref="AB171:AC171"/>
-    <mergeCell ref="AB160:AC160"/>
-    <mergeCell ref="AB161:AC161"/>
-    <mergeCell ref="AB162:AC162"/>
-    <mergeCell ref="AB163:AC163"/>
-    <mergeCell ref="AB164:AC164"/>
-    <mergeCell ref="AB165:AC165"/>
-    <mergeCell ref="AB178:AC178"/>
-    <mergeCell ref="AB179:AC179"/>
-    <mergeCell ref="AB180:AC180"/>
-    <mergeCell ref="AB181:AC181"/>
-    <mergeCell ref="AB182:AC182"/>
-    <mergeCell ref="AB183:AC183"/>
-    <mergeCell ref="AB172:AC172"/>
-    <mergeCell ref="AB173:AC173"/>
-    <mergeCell ref="AB174:AC174"/>
-    <mergeCell ref="AB175:AC175"/>
-    <mergeCell ref="AB176:AC176"/>
-    <mergeCell ref="AB177:AC177"/>
-    <mergeCell ref="AB186:AC186"/>
-    <mergeCell ref="AB187:AC187"/>
-    <mergeCell ref="AB188:AC188"/>
-    <mergeCell ref="AB189:AC189"/>
-    <mergeCell ref="H190:I190"/>
-    <mergeCell ref="J190:K190"/>
-    <mergeCell ref="AB190:AC190"/>
-    <mergeCell ref="H184:I184"/>
-    <mergeCell ref="J184:K184"/>
-    <mergeCell ref="AB184:AC184"/>
-    <mergeCell ref="H185:I185"/>
-    <mergeCell ref="J185:K185"/>
-    <mergeCell ref="AB185:AC185"/>
-    <mergeCell ref="AB197:AC197"/>
-    <mergeCell ref="H198:I198"/>
-    <mergeCell ref="J198:K198"/>
-    <mergeCell ref="AB198:AC198"/>
-    <mergeCell ref="H199:I199"/>
-    <mergeCell ref="J199:K199"/>
-    <mergeCell ref="AB199:AC199"/>
-    <mergeCell ref="AB191:AC191"/>
-    <mergeCell ref="AB192:AC192"/>
-    <mergeCell ref="AB193:AC193"/>
-    <mergeCell ref="AB194:AC194"/>
-    <mergeCell ref="AB195:AC195"/>
-    <mergeCell ref="AB196:AC196"/>
-    <mergeCell ref="H202:I202"/>
-    <mergeCell ref="J202:K202"/>
-    <mergeCell ref="AB202:AC202"/>
-    <mergeCell ref="H203:I203"/>
-    <mergeCell ref="J203:K203"/>
-    <mergeCell ref="AB203:AC203"/>
-    <mergeCell ref="H200:I200"/>
-    <mergeCell ref="J200:K200"/>
-    <mergeCell ref="AB200:AC200"/>
-    <mergeCell ref="H201:I201"/>
-    <mergeCell ref="J201:K201"/>
-    <mergeCell ref="AB201:AC201"/>
-    <mergeCell ref="H206:I206"/>
-    <mergeCell ref="J206:K206"/>
-    <mergeCell ref="L206:M206"/>
-    <mergeCell ref="AB206:AC206"/>
-    <mergeCell ref="H207:I207"/>
-    <mergeCell ref="J207:K207"/>
-    <mergeCell ref="L207:M207"/>
-    <mergeCell ref="AB207:AC207"/>
-    <mergeCell ref="H204:I204"/>
-    <mergeCell ref="J204:K204"/>
-    <mergeCell ref="AB204:AC204"/>
-    <mergeCell ref="H205:I205"/>
-    <mergeCell ref="J205:K205"/>
-    <mergeCell ref="AB205:AC205"/>
-    <mergeCell ref="H210:I210"/>
-    <mergeCell ref="J210:K210"/>
-    <mergeCell ref="L210:M210"/>
-    <mergeCell ref="AB210:AC210"/>
-    <mergeCell ref="H211:I211"/>
-    <mergeCell ref="J211:K211"/>
-    <mergeCell ref="L211:M211"/>
-    <mergeCell ref="AB211:AC211"/>
-    <mergeCell ref="H208:I208"/>
-    <mergeCell ref="J208:K208"/>
-    <mergeCell ref="L208:M208"/>
-    <mergeCell ref="AB208:AC208"/>
-    <mergeCell ref="H209:I209"/>
-    <mergeCell ref="J209:K209"/>
-    <mergeCell ref="L209:M209"/>
-    <mergeCell ref="AB209:AC209"/>
-    <mergeCell ref="H214:I214"/>
-    <mergeCell ref="J214:K214"/>
-    <mergeCell ref="AB214:AC214"/>
-    <mergeCell ref="H215:I215"/>
-    <mergeCell ref="J215:K215"/>
-    <mergeCell ref="L215:M215"/>
-    <mergeCell ref="AB215:AC215"/>
-    <mergeCell ref="H212:I212"/>
-    <mergeCell ref="J212:K212"/>
-    <mergeCell ref="L212:M212"/>
-    <mergeCell ref="AB212:AC212"/>
-    <mergeCell ref="H213:I213"/>
-    <mergeCell ref="J213:K213"/>
-    <mergeCell ref="L213:M213"/>
-    <mergeCell ref="AB213:AC213"/>
-    <mergeCell ref="H218:I218"/>
-    <mergeCell ref="J218:K218"/>
-    <mergeCell ref="AB218:AC218"/>
-    <mergeCell ref="H219:I219"/>
-    <mergeCell ref="J219:K219"/>
-    <mergeCell ref="AB219:AC219"/>
-    <mergeCell ref="H216:I216"/>
-    <mergeCell ref="J216:K216"/>
-    <mergeCell ref="AB216:AC216"/>
-    <mergeCell ref="H217:I217"/>
-    <mergeCell ref="J217:K217"/>
-    <mergeCell ref="AB217:AC217"/>
-    <mergeCell ref="H222:I222"/>
-    <mergeCell ref="J222:K222"/>
-    <mergeCell ref="AB222:AC222"/>
-    <mergeCell ref="H223:I223"/>
-    <mergeCell ref="J223:K223"/>
-    <mergeCell ref="AB223:AC223"/>
-    <mergeCell ref="H220:I220"/>
-    <mergeCell ref="J220:K220"/>
-    <mergeCell ref="L220:M220"/>
-    <mergeCell ref="AB220:AC220"/>
-    <mergeCell ref="H221:I221"/>
-    <mergeCell ref="J221:K221"/>
-    <mergeCell ref="AB221:AC221"/>
-    <mergeCell ref="H226:I226"/>
-    <mergeCell ref="J226:K226"/>
-    <mergeCell ref="AB226:AC226"/>
-    <mergeCell ref="H227:I227"/>
-    <mergeCell ref="J227:K227"/>
-    <mergeCell ref="AB227:AC227"/>
-    <mergeCell ref="H224:I224"/>
-    <mergeCell ref="J224:K224"/>
-    <mergeCell ref="AB224:AC224"/>
-    <mergeCell ref="H225:I225"/>
-    <mergeCell ref="J225:K225"/>
-    <mergeCell ref="AB225:AC225"/>
-    <mergeCell ref="H230:I230"/>
-    <mergeCell ref="J230:K230"/>
-    <mergeCell ref="L230:M230"/>
-    <mergeCell ref="AB230:AC230"/>
-    <mergeCell ref="H231:I231"/>
-    <mergeCell ref="J231:K231"/>
-    <mergeCell ref="AB231:AC231"/>
-    <mergeCell ref="H228:I228"/>
-    <mergeCell ref="J228:K228"/>
-    <mergeCell ref="AB228:AC228"/>
-    <mergeCell ref="H229:I229"/>
-    <mergeCell ref="J229:K229"/>
-    <mergeCell ref="L229:M229"/>
-    <mergeCell ref="AB229:AC229"/>
-    <mergeCell ref="H234:I234"/>
-    <mergeCell ref="J234:K234"/>
-    <mergeCell ref="AB234:AC234"/>
-    <mergeCell ref="H235:I235"/>
-    <mergeCell ref="J235:K235"/>
-    <mergeCell ref="AB235:AC235"/>
-    <mergeCell ref="H232:I232"/>
-    <mergeCell ref="J232:K232"/>
-    <mergeCell ref="L232:M232"/>
-    <mergeCell ref="AB232:AC232"/>
-    <mergeCell ref="H233:I233"/>
-    <mergeCell ref="J233:K233"/>
-    <mergeCell ref="L233:M233"/>
-    <mergeCell ref="AB233:AC233"/>
-    <mergeCell ref="H238:I238"/>
-    <mergeCell ref="J238:K238"/>
-    <mergeCell ref="AB238:AC238"/>
-    <mergeCell ref="H239:I239"/>
-    <mergeCell ref="J239:K239"/>
-    <mergeCell ref="AB239:AC239"/>
-    <mergeCell ref="H236:I236"/>
-    <mergeCell ref="J236:K236"/>
-    <mergeCell ref="AB236:AC236"/>
-    <mergeCell ref="H237:I237"/>
-    <mergeCell ref="J237:K237"/>
-    <mergeCell ref="L237:M237"/>
-    <mergeCell ref="AB237:AC237"/>
-    <mergeCell ref="H242:I242"/>
-    <mergeCell ref="J242:K242"/>
-    <mergeCell ref="AB242:AC242"/>
-    <mergeCell ref="H243:I243"/>
-    <mergeCell ref="J243:K243"/>
-    <mergeCell ref="AB243:AC243"/>
-    <mergeCell ref="H240:I240"/>
-    <mergeCell ref="J240:K240"/>
-    <mergeCell ref="AB240:AC240"/>
-    <mergeCell ref="H241:I241"/>
-    <mergeCell ref="J241:K241"/>
-    <mergeCell ref="AB241:AC241"/>
-    <mergeCell ref="H246:I246"/>
-    <mergeCell ref="J246:K246"/>
-    <mergeCell ref="AB246:AC246"/>
-    <mergeCell ref="H247:I247"/>
-    <mergeCell ref="J247:K247"/>
-    <mergeCell ref="AB247:AC247"/>
-    <mergeCell ref="H244:I244"/>
-    <mergeCell ref="J244:K244"/>
-    <mergeCell ref="AB244:AC244"/>
-    <mergeCell ref="H245:I245"/>
-    <mergeCell ref="J245:K245"/>
-    <mergeCell ref="L245:M245"/>
-    <mergeCell ref="AB245:AC245"/>
-    <mergeCell ref="H250:I250"/>
-    <mergeCell ref="J250:K250"/>
-    <mergeCell ref="L250:M250"/>
-    <mergeCell ref="AB250:AC250"/>
-    <mergeCell ref="H251:I251"/>
-    <mergeCell ref="J251:K251"/>
-    <mergeCell ref="AB251:AC251"/>
-    <mergeCell ref="H248:I248"/>
-    <mergeCell ref="J248:K248"/>
-    <mergeCell ref="L248:M248"/>
-    <mergeCell ref="AB248:AC248"/>
-    <mergeCell ref="H249:I249"/>
-    <mergeCell ref="J249:K249"/>
-    <mergeCell ref="AB249:AC249"/>
-    <mergeCell ref="H254:I254"/>
-    <mergeCell ref="J254:K254"/>
-    <mergeCell ref="AB254:AC254"/>
-    <mergeCell ref="H255:I255"/>
-    <mergeCell ref="J255:K255"/>
-    <mergeCell ref="AB255:AC255"/>
-    <mergeCell ref="H252:I252"/>
-    <mergeCell ref="J252:K252"/>
-    <mergeCell ref="L252:M252"/>
-    <mergeCell ref="AB252:AC252"/>
-    <mergeCell ref="H253:I253"/>
-    <mergeCell ref="J253:K253"/>
-    <mergeCell ref="L253:M253"/>
-    <mergeCell ref="AB253:AC253"/>
-    <mergeCell ref="H258:I258"/>
-    <mergeCell ref="J258:K258"/>
-    <mergeCell ref="AB258:AC258"/>
-    <mergeCell ref="H259:I259"/>
-    <mergeCell ref="J259:K259"/>
-    <mergeCell ref="AB259:AC259"/>
-    <mergeCell ref="H256:I256"/>
-    <mergeCell ref="J256:K256"/>
-    <mergeCell ref="AB256:AC256"/>
-    <mergeCell ref="H257:I257"/>
-    <mergeCell ref="J257:K257"/>
-    <mergeCell ref="AB257:AC257"/>
-    <mergeCell ref="H262:I262"/>
-    <mergeCell ref="J262:K262"/>
-    <mergeCell ref="AB262:AC262"/>
-    <mergeCell ref="H263:I263"/>
-    <mergeCell ref="J263:K263"/>
-    <mergeCell ref="AB263:AC263"/>
-    <mergeCell ref="H260:I260"/>
-    <mergeCell ref="J260:K260"/>
-    <mergeCell ref="AB260:AC260"/>
-    <mergeCell ref="H261:I261"/>
-    <mergeCell ref="J261:K261"/>
-    <mergeCell ref="L261:M261"/>
-    <mergeCell ref="AB261:AC261"/>
-    <mergeCell ref="H266:I266"/>
-    <mergeCell ref="J266:K266"/>
-    <mergeCell ref="L266:M266"/>
-    <mergeCell ref="AB266:AC266"/>
-    <mergeCell ref="AB267:AC267"/>
-    <mergeCell ref="AB268:AC268"/>
-    <mergeCell ref="H264:I264"/>
-    <mergeCell ref="J264:K264"/>
-    <mergeCell ref="AB264:AC264"/>
-    <mergeCell ref="H265:I265"/>
-    <mergeCell ref="J265:K265"/>
-    <mergeCell ref="AB265:AC265"/>
-    <mergeCell ref="AB275:AC275"/>
-    <mergeCell ref="H276:I276"/>
-    <mergeCell ref="J276:K276"/>
-    <mergeCell ref="AB276:AC276"/>
-    <mergeCell ref="H277:I277"/>
-    <mergeCell ref="J277:K277"/>
-    <mergeCell ref="AB277:AC277"/>
-    <mergeCell ref="AB269:AC269"/>
-    <mergeCell ref="AB270:AC270"/>
-    <mergeCell ref="AB271:AC271"/>
-    <mergeCell ref="AB272:AC272"/>
-    <mergeCell ref="AB273:AC273"/>
-    <mergeCell ref="AB274:AC274"/>
-    <mergeCell ref="H280:I280"/>
-    <mergeCell ref="J280:K280"/>
-    <mergeCell ref="L280:M280"/>
-    <mergeCell ref="AB280:AC280"/>
-    <mergeCell ref="H281:I281"/>
-    <mergeCell ref="J281:K281"/>
-    <mergeCell ref="AB281:AC281"/>
-    <mergeCell ref="H278:I278"/>
-    <mergeCell ref="J278:K278"/>
-    <mergeCell ref="AB278:AC278"/>
-    <mergeCell ref="I279:J279"/>
-    <mergeCell ref="K279:L279"/>
-    <mergeCell ref="AB279:AC279"/>
-    <mergeCell ref="H284:I284"/>
-    <mergeCell ref="J284:K284"/>
-    <mergeCell ref="L284:M284"/>
-    <mergeCell ref="AC284:AD284"/>
-    <mergeCell ref="H282:I282"/>
-    <mergeCell ref="J282:K282"/>
-    <mergeCell ref="AB282:AC282"/>
-    <mergeCell ref="H283:I283"/>
-    <mergeCell ref="J283:K283"/>
-    <mergeCell ref="L283:M283"/>
-    <mergeCell ref="AB283:AC283"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="AB47:AC47"/>
+    <mergeCell ref="AC48:AD48"/>
+    <mergeCell ref="AB49:AC49"/>
+    <mergeCell ref="AC50:AD50"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="AB44:AC44"/>
+    <mergeCell ref="AB45:AC45"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="AB46:AC46"/>
+    <mergeCell ref="AC38:AD38"/>
+    <mergeCell ref="AC39:AD39"/>
+    <mergeCell ref="AC40:AD40"/>
+    <mergeCell ref="AC41:AD41"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="AB42:AC42"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="AB35:AC35"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="AB36:AC36"/>
+    <mergeCell ref="AC37:AD37"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="AB33:AC33"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="AB34:AC34"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="AB31:AC31"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="AB32:AC32"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="AB29:AC29"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="AB30:AC30"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="AB27:AC27"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="AB28:AC28"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="AB24:AC24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="AB25:AC25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="AB26:AC26"/>
+    <mergeCell ref="AC19:AD19"/>
+    <mergeCell ref="AC20:AD20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="AB21:AC21"/>
+    <mergeCell ref="AB22:AC22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="AB23:AC23"/>
+    <mergeCell ref="AB15:AC15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="AB16:AC16"/>
+    <mergeCell ref="AC17:AD17"/>
+    <mergeCell ref="AC18:AD18"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="AC11:AD11"/>
+    <mergeCell ref="AB12:AC12"/>
+    <mergeCell ref="AB13:AC13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="AB14:AC14"/>
+    <mergeCell ref="AB9:AC9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="AB10:AC10"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="AC6:AD6"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="AC8:AD8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="BF20" r:id="rId1" display="mailto:auxconta@rosarito.com" xr:uid="{C50E4940-3978-49B5-9079-4AEFDEC07E45}"/>
@@ -46912,15 +46912,15 @@
       <selection activeCell="I3" sqref="I3:I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" customWidth="1"/>
-    <col min="8" max="8" width="27.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6328125" customWidth="1"/>
+    <col min="8" max="8" width="27.54296875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="31" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>191</v>
       </c>
@@ -46929,7 +46929,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -46941,7 +46941,7 @@
         <v>1658</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>198</v>
       </c>
@@ -46957,7 +46957,7 @@
         <v>('MANTENIMIENTO',1),</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>179</v>
       </c>
@@ -46973,7 +46973,7 @@
         <v>('ACTUALIZACION',1),</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>177</v>
       </c>
@@ -46989,7 +46989,7 @@
         <v>('SUSTITUCION',1),</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>102</v>
       </c>
@@ -47005,7 +47005,7 @@
         <v>('CONFIGURACIÓN',1),</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -47021,7 +47021,7 @@
         <v>('DESBLOQUEO / RECUPERACIÓN',1),</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -47037,7 +47037,7 @@
         <v>('DIAGNÓSTICO',1),</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -47053,7 +47053,7 @@
         <v>('CONECTIVIDAD',1),</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -47069,7 +47069,7 @@
         <v>('INCIDENTES / SEGURIDAD',1),</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>199</v>
       </c>
@@ -47085,7 +47085,7 @@
         <v>('OTROS',1),</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>184</v>
       </c>
@@ -47094,7 +47094,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>185</v>
       </c>
@@ -47103,7 +47103,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>192</v>
       </c>
@@ -47112,7 +47112,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>182</v>
       </c>
@@ -47121,7 +47121,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>190</v>
       </c>
@@ -47130,7 +47130,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>183</v>
       </c>
@@ -47139,7 +47139,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>189</v>
       </c>
@@ -47148,7 +47148,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>193</v>
       </c>
@@ -47157,7 +47157,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>55</v>
       </c>
@@ -47166,7 +47166,7 @@
         <v>ADM</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>178</v>
       </c>
@@ -47175,7 +47175,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>180</v>
       </c>
@@ -47184,7 +47184,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>99</v>
       </c>
@@ -47193,7 +47193,7 @@
         <v>CD</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>186</v>
       </c>
@@ -47202,7 +47202,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>181</v>
       </c>
@@ -47211,7 +47211,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>105</v>
       </c>
@@ -47220,7 +47220,7 @@
         <v>CD</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>176</v>
       </c>
@@ -47229,7 +47229,7 @@
         <v>PTA</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -47238,7 +47238,7 @@
         <v>ADM</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>194</v>
       </c>
@@ -47247,7 +47247,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>195</v>
       </c>
@@ -47256,7 +47256,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>111</v>
       </c>
@@ -47265,7 +47265,7 @@
         <v>ENS</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>129</v>
       </c>
@@ -47274,7 +47274,7 @@
         <v>HIL</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>149</v>
       </c>
@@ -47283,7 +47283,7 @@
         <v>MEX</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>164</v>
       </c>
@@ -47292,7 +47292,7 @@
         <v>OBR</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>205</v>
       </c>
@@ -47301,7 +47301,7 @@
         <v>TIJ</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>58</v>
       </c>
@@ -47310,7 +47310,7 @@
         <v>ADM</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>22</v>
       </c>
